--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="59">
   <si>
     <t>Cluster name</t>
   </si>
@@ -31,21 +31,33 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>574 Plummer Street Building B1 &amp; B2 Port Melbourne</t>
+    <t>21 Moore Street Apartment Complex Moonee Ponds</t>
+  </si>
+  <si>
+    <t>A Treat of France Cafe Carlton North</t>
+  </si>
+  <si>
+    <t>A1 Bakery Brunswick</t>
   </si>
   <si>
     <t>Acquire BPO Southbank</t>
   </si>
   <si>
-    <t>Al Haj Halal Meats Glenroy</t>
-  </si>
-  <si>
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
+    <t>Broadmeadows Medical Centre Broadmeadows</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs</t>
+  </si>
+  <si>
+    <t>Campbellfield Heights Primary School</t>
+  </si>
+  <si>
     <t>Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
@@ -61,127 +73,124 @@
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
+    <t>City of Moreland Social Network</t>
+  </si>
+  <si>
+    <t>City of Wyndham Community</t>
+  </si>
+  <si>
     <t>Classy Cabinets and Kitchens Craigieburn</t>
   </si>
   <si>
+    <t>Coles Broadmeadows Central Shopping Centre</t>
+  </si>
+  <si>
     <t>Coles Campbellfield Plaza Campbellfield</t>
   </si>
   <si>
     <t>Coles Coburg North Village Aug</t>
   </si>
   <si>
-    <t>Community Kids Meadow Heights</t>
-  </si>
-  <si>
-    <t>Concept Caravans Campbellfield</t>
-  </si>
-  <si>
-    <t>Costco Wholesale Epping</t>
-  </si>
-  <si>
-    <t>Glenroy West Primary School</t>
-  </si>
-  <si>
-    <t>Health Care Providers Association South Melbourne</t>
-  </si>
-  <si>
-    <t>Ilim Learning Sanctuary Glenroy</t>
-  </si>
-  <si>
-    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
+    <t>Coles Coburg North Village August</t>
+  </si>
+  <si>
+    <t>Coles Greenvale Shopping Centre</t>
+  </si>
+  <si>
+    <t>Coles Pakenham Place Shopping Centre</t>
+  </si>
+  <si>
+    <t>Crossroads Logistics Sunshine North</t>
+  </si>
+  <si>
+    <t>Elite Smart Community Care Campbellfield</t>
+  </si>
+  <si>
+    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
+  </si>
+  <si>
+    <t>Fitzroy Community School Fitzroy North</t>
+  </si>
+  <si>
+    <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
     <t>Islamic College of Melbourne Tarneit</t>
   </si>
   <si>
-    <t>KFC Fawkner</t>
-  </si>
-  <si>
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
     <t>Kids House Early Learning Cheltenham</t>
   </si>
   <si>
-    <t>Mill Park Superclinic</t>
+    <t>Learning Nest Early Learning Centre Meadow Heights</t>
+  </si>
+  <si>
+    <t>Louis Vuitton Melbourne Crown Southbank</t>
+  </si>
+  <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
+    <t>Melbourne Truck Repairs Campbellfield</t>
+  </si>
+  <si>
+    <t>Mercy Hospital for Women Heidelberg</t>
+  </si>
+  <si>
+    <t>Metricon Homes Lot 1815 Canning Dr Mickleham</t>
   </si>
   <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
-    <t>Newbury Child and Community Centre Craigieburn</t>
-  </si>
-  <si>
-    <t>Nido Early School Moonee Ponds</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
     <t>OnQ Plumbing and Excavations Cragieburn</t>
   </si>
   <si>
+    <t>OnQ Plumbing and Excavations Craigieburn</t>
+  </si>
+  <si>
     <t>Oporto Coolaroo</t>
   </si>
   <si>
+    <t>Paisley Park Early Learning Centre Bundoora</t>
+  </si>
+  <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
     <t>Pascoe Vale Primary School Pascoe Vale</t>
   </si>
   <si>
-    <t>Pearl Street Child Care Centre Glenroy</t>
-  </si>
-  <si>
-    <t>Serco Mill Park</t>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
     <t>Tek Foods Somerton</t>
   </si>
   <si>
-    <t>The Homestead Child and Family Centre Roxburgh Park</t>
-  </si>
-  <si>
-    <t>The Northern Hospital Epping</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
-  </si>
-  <si>
     <t>Tip Top Warehouse Dandenong</t>
   </si>
   <si>
-    <t>Total Window Concepts Hoppers Crossing</t>
-  </si>
-  <si>
-    <t>Trilogy 201 High St Apartment Complex Prahran</t>
-  </si>
-  <si>
     <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
   </si>
   <si>
     <t>Turnstall Fresh Turnstall Square Shopping Centre Donaster East</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Woolworths Greenvale Lakes Roxburgh Park</t>
-  </si>
-  <si>
     <t>Yara Childcare Centre Truganina</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -539,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,967 +576,890 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>38</v>
-      </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
         <v>18</v>
       </c>
-      <c r="B27">
-        <v>20</v>
-      </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B54">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B55">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B59">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B60">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B61">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B69">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B73">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B78">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-      <c r="E83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84">
-        <v>7</v>
-      </c>
-      <c r="E84" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B85">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86">
-        <v>15</v>
-      </c>
-      <c r="E86" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87">
-        <v>16</v>
-      </c>
-      <c r="E87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88">
-        <v>30</v>
-      </c>
-      <c r="E88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B89">
-        <v>31</v>
-      </c>
-      <c r="E89" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="67">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
+  </si>
+  <si>
     <t>574 Plummer Street Building B1 &amp; B2 Port Melbourne</t>
   </si>
   <si>
@@ -40,43 +43,25 @@
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Amiga Montessori Craigieburn</t>
+    <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
     <t>Budget Car and Truck Rentals Campbellfield</t>
   </si>
   <si>
-    <t>CMV Truck and Bus Dealership Springvale</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Campbellfield Heights Primary School</t>
-  </si>
-  <si>
-    <t>Campbellfield Heights Primary School Campbellfield</t>
-  </si>
-  <si>
-    <t>Cannie Road Construction Site Cannie</t>
-  </si>
-  <si>
-    <t>Caroline Springs Police Station</t>
-  </si>
-  <si>
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
-    <t>City of Greater Shepparton Community</t>
-  </si>
-  <si>
-    <t>City of Hobsons Bay Community</t>
+    <t>Central Plaster 236 &amp; 259 Jasper Road McKinnon</t>
   </si>
   <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
-    <t>City of Wyndham Community</t>
+    <t>Classy Cabinets and Kitchens Craigieburn</t>
+  </si>
+  <si>
+    <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
     <t>Coles Campbellfield Plaza Campbellfield</t>
@@ -85,18 +70,36 @@
     <t>Coles Coburg North Village</t>
   </si>
   <si>
+    <t>Coles Coburg North Village Aug</t>
+  </si>
+  <si>
+    <t>Coles Coburg North Village August</t>
+  </si>
+  <si>
+    <t>Coles Pakenham Place Shopping Centre</t>
+  </si>
+  <si>
+    <t>Coles Roxburgh Village Roxburgh Park</t>
+  </si>
+  <si>
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
+    <t>Concept Caravans Campbellfield</t>
+  </si>
+  <si>
+    <t>Construction Site Olea Apartment Caulfield North</t>
+  </si>
+  <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Crossroads Logistics Sunshine North</t>
-  </si>
-  <si>
     <t>Croydon Orthodontics</t>
   </si>
   <si>
+    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
+  </si>
+  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
@@ -112,6 +115,12 @@
     <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
   </si>
   <si>
+    <t>Ilim Learning Sanctuary Glenroy</t>
+  </si>
+  <si>
+    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
+  </si>
+  <si>
     <t>Islamic College of Melbourne Tarneit</t>
   </si>
   <si>
@@ -121,36 +130,48 @@
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
+    <t>Kids House Early Learning Cheltenham</t>
+  </si>
+  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
-    <t>Malvern Health and Fitness Clinic Malvern</t>
+    <t>Linfox Somerton National Distribution Centre Somerton</t>
+  </si>
+  <si>
+    <t>Louis Vuitton Melbourne Crown Southbank</t>
   </si>
   <si>
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
   </si>
   <si>
-    <t>Melbourne Truck Repairs Campbellfield</t>
-  </si>
-  <si>
-    <t>Melbourne West Police Station Docklands</t>
+    <t>Melbourne Youth Justice Centre Parkville</t>
+  </si>
+  <si>
+    <t>Mernda YMCA Early Learning Centre Mernda</t>
   </si>
   <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
-    <t>Newport Gardens Early Years Centre Newport</t>
+    <t>Newport Football Club Altona North</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
+    <t>OnQ Plumbing and Excavations Craigieburn</t>
+  </si>
+  <si>
+    <t>Oporto Coolaroo</t>
+  </si>
+  <si>
+    <t>Paisley Park Early Learning Centre Bundoora</t>
+  </si>
+  <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Pascoe Vale Primary School Pascoe Vale</t>
-  </si>
-  <si>
     <t>Pearl Street Child Care Centre Glenroy</t>
   </si>
   <si>
@@ -166,22 +187,22 @@
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>The Homestead Child and Family Centre Roxburgh Park</t>
-  </si>
-  <si>
-    <t>Total Window Concepts Hoppers Crossing</t>
+    <t>Tek Foods Somerton</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+  </si>
+  <si>
+    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Who is Bunker Spreckels Cafe Elwood</t>
-  </si>
-  <si>
-    <t>Woolworths Coburg Station</t>
+    <t>Western Health Footscray Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
   </si>
   <si>
     <t>Woolworths Greenvale Lakes Roxburgh Park</t>
@@ -551,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,21 +594,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -595,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -606,10 +627,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -617,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -628,10 +649,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -639,10 +660,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -650,10 +671,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -661,10 +682,10 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -672,10 +693,10 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -683,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -694,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -708,843 +729,1030 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50">
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B53">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B65">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B66">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B67">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B77">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87">
         <v>56</v>
       </c>
-      <c r="B87">
-        <v>14</v>
-      </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B89">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>57</v>
       </c>
-      <c r="B90">
-        <v>30</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>59</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107">
+        <v>27</v>
+      </c>
+      <c r="C107" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,13 +25,10 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
-  </si>
-  <si>
     <t>574 Plummer Street Building B1 &amp; B2 Port Melbourne</t>
   </si>
   <si>
-    <t>7 Chefs Fawkner</t>
+    <t>A1 Bakery Brunswick</t>
   </si>
   <si>
     <t>Acquire BPO Southbank</t>
@@ -46,7 +43,13 @@
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
-    <t>Budget Car and Truck Rentals Campbellfield</t>
+    <t>Can Panel Cambellfield</t>
+  </si>
+  <si>
+    <t>Can Panel Campbellfield</t>
+  </si>
+  <si>
+    <t>Caroline Springs Police Station</t>
   </si>
   <si>
     <t>Cedars Medical Clinic Coburg</t>
@@ -55,13 +58,16 @@
     <t>Central Plaster 236 &amp; 259 Jasper Road McKinnon</t>
   </si>
   <si>
+    <t>Chemist Warehouse Fillo Drive Somerton</t>
+  </si>
+  <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
-    <t>Classy Cabinets and Kitchens Craigieburn</t>
-  </si>
-  <si>
-    <t>Coles Broadmeadows Central Shopping Centre</t>
+    <t>City of Wyndham Community</t>
+  </si>
+  <si>
+    <t>Coles Aurora Village Epping</t>
   </si>
   <si>
     <t>Coles Campbellfield Plaza Campbellfield</t>
@@ -70,57 +76,45 @@
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Coburg North Village Aug</t>
-  </si>
-  <si>
-    <t>Coles Coburg North Village August</t>
-  </si>
-  <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
-  </si>
-  <si>
     <t>Coles Roxburgh Village Roxburgh Park</t>
   </si>
   <si>
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
-    <t>Concept Caravans Campbellfield</t>
-  </si>
-  <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
+    <t>Crossroads Logistics Sunshine North</t>
+  </si>
+  <si>
     <t>Croydon Orthodontics</t>
   </si>
   <si>
-    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
+    <t>Direct Freight Express Campbellield</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
-    <t>Health Care Providers Association South Melbourne</t>
+    <t>Gloria Jeans Coffees Broadmeadows Central</t>
+  </si>
+  <si>
+    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
     <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
-    <t>Ilim College Glenroy Campus Hadfield</t>
-  </si>
-  <si>
-    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
+    <t>Ilim Leaning Sanctuary Glenroy</t>
   </si>
   <si>
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
-    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
-  </si>
-  <si>
     <t>Islamic College of Melbourne Tarneit</t>
   </si>
   <si>
@@ -130,31 +124,28 @@
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
-    <t>Kids House Early Learning Cheltenham</t>
+    <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
+    <t>Lineage Logistics Laverton North</t>
+  </si>
+  <si>
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>Louis Vuitton Melbourne Crown Southbank</t>
-  </si>
-  <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Melbourne Youth Justice Centre Parkville</t>
-  </si>
-  <si>
-    <t>Mernda YMCA Early Learning Centre Mernda</t>
-  </si>
-  <si>
-    <t>MyCentre Childcare Broadmeadows</t>
-  </si>
-  <si>
-    <t>Newport Football Club Altona North</t>
+    <t>Malvern Health and Fitness Clinic Malvern</t>
+  </si>
+  <si>
+    <t>McDonalds Thomastown II</t>
+  </si>
+  <si>
+    <t>Melton Police Station Melton</t>
+  </si>
+  <si>
+    <t>North Geelong House Party</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
@@ -166,24 +157,18 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
-    <t>Paisley Park Early Learning Centre Bundoora</t>
-  </si>
-  <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Pearl Street Child Care Centre Glenroy</t>
-  </si>
-  <si>
-    <t>People First Healthcare Home Residence Disability Support Taylors Lakes</t>
-  </si>
-  <si>
-    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
+    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
     <t>Serco Mill Park</t>
   </si>
   <si>
+    <t>Southern Cross Station Crew Room Tissue Box Docklands</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
@@ -193,16 +178,19 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>Total Window Concepts Hoppers Crossing</t>
+  </si>
+  <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
+    <t>Victorian Civil and Administrative Tribunal Melbourne</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospistal Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
     <t>Woolworths Greenvale Lakes Roxburgh Park</t>
@@ -211,10 +199,13 @@
     <t>Yara Childcare Centre Truganina</t>
   </si>
   <si>
+    <t>Yarra Childcare Centre Truganina</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -572,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,10 +585,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -608,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -616,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -627,10 +618,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -638,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -649,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -660,10 +651,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -671,10 +662,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -682,10 +673,10 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -693,10 +684,10 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -704,10 +695,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -718,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -729,18 +720,18 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -748,21 +739,21 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -770,10 +761,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -781,219 +772,219 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
         <v>22</v>
       </c>
-      <c r="B36">
-        <v>21</v>
-      </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1001,758 +992,626 @@
         <v>25</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B76">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B78">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B79">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B82">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B86">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B87">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>57</v>
-      </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>61</v>
-      </c>
-      <c r="B102">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103">
-        <v>5</v>
-      </c>
-      <c r="C103" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104">
-        <v>13</v>
-      </c>
-      <c r="C104" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B105">
-        <v>14</v>
-      </c>
-      <c r="C105" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106">
-        <v>26</v>
-      </c>
-      <c r="C106" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>64</v>
-      </c>
-      <c r="B107">
-        <v>27</v>
-      </c>
-      <c r="C107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,10 +25,7 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>574 Plummer Street Building B1 &amp; B2 Port Melbourne</t>
-  </si>
-  <si>
-    <t>A1 Bakery Brunswick</t>
+    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
     <t>Acquire BPO Southbank</t>
@@ -40,7 +37,10 @@
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Best&amp;Less Fountain Gate Narre Warren</t>
+    <t>Broadmeadows Medical Centre Broadmeadows</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs</t>
   </si>
   <si>
     <t>Can Panel Cambellfield</t>
@@ -49,16 +49,7 @@
     <t>Can Panel Campbellfield</t>
   </si>
   <si>
-    <t>Caroline Springs Police Station</t>
-  </si>
-  <si>
-    <t>Cedars Medical Clinic Coburg</t>
-  </si>
-  <si>
-    <t>Central Plaster 236 &amp; 259 Jasper Road McKinnon</t>
-  </si>
-  <si>
-    <t>Chemist Warehouse Fillo Drive Somerton</t>
+    <t>City of Hobsons Bay Community</t>
   </si>
   <si>
     <t>City of Moreland Community</t>
@@ -70,88 +61,79 @@
     <t>Coles Aurora Village Epping</t>
   </si>
   <si>
+    <t>Coles Barkly Square Brunswick August</t>
+  </si>
+  <si>
     <t>Coles Campbellfield Plaza Campbellfield</t>
   </si>
   <si>
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
-  </si>
-  <si>
-    <t>Community Kids Meadow Heights</t>
-  </si>
-  <si>
-    <t>Construction Site Olea Apartment Caulfield North</t>
+    <t>Coles Coburg North Village Aug</t>
+  </si>
+  <si>
+    <t>Coles Greenvale Shopping Centre</t>
+  </si>
+  <si>
+    <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Crossroads Logistics Sunshine North</t>
-  </si>
-  <si>
-    <t>Croydon Orthodontics</t>
+    <t>DRC Laverton Automotive Repairs Laverton North</t>
+  </si>
+  <si>
+    <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
     <t>Direct Freight Express Campbellield</t>
   </si>
   <si>
+    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
+  </si>
+  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
-    <t>Gloria Jeans Coffees Broadmeadows Central</t>
+    <t>Glenroy West Primary School</t>
   </si>
   <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
+    <t>Health Care Providers Association South Melbourne</t>
+  </si>
+  <si>
     <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
+    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
+  </si>
+  <si>
     <t>Ilim Leaning Sanctuary Glenroy</t>
   </si>
   <si>
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
-    <t>Islamic College of Melbourne Tarneit</t>
+    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
     <t>KFC Fawkner</t>
   </si>
   <si>
-    <t>Kasr Sweets Coolaroo</t>
-  </si>
-  <si>
-    <t>Learning Nest Early Learning Centre Meadow Heights</t>
-  </si>
-  <si>
-    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
-  </si>
-  <si>
-    <t>Lineage Logistics Laverton North</t>
-  </si>
-  <si>
-    <t>Linfox Somerton National Distribution Centre Somerton</t>
-  </si>
-  <si>
     <t>Malvern Health and Fitness Clinic Malvern</t>
   </si>
   <si>
     <t>McDonalds Thomastown II</t>
   </si>
   <si>
-    <t>Melton Police Station Melton</t>
-  </si>
-  <si>
-    <t>North Geelong House Party</t>
-  </si>
-  <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
-  </si>
-  <si>
-    <t>OnQ Plumbing and Excavations Craigieburn</t>
+    <t>National Gallery of Victoria Melbourne</t>
+  </si>
+  <si>
+    <t>Newport Gardens Early Years Centre Newport</t>
   </si>
   <si>
     <t>Oporto Coolaroo</t>
@@ -160,37 +142,31 @@
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
     <t>Serco Mill Park</t>
   </si>
   <si>
-    <t>Southern Cross Station Crew Room Tissue Box Docklands</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
-  </si>
-  <si>
-    <t>Tek Foods Somerton</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>Total Window Concepts Hoppers Crossing</t>
+    <t>Tip Top Warehouse Dandenong</t>
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
-    <t>Victorian Civil and Administrative Tribunal Melbourne</t>
-  </si>
-  <si>
     <t>Werribee Mercy Hospistal Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Footscray Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Who is Bunker Spreckels Cafe Elwood</t>
   </si>
   <si>
     <t>Woolworths Greenvale Lakes Roxburgh Park</t>
@@ -563,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,21 +561,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -607,21 +583,21 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -629,21 +605,21 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -651,21 +627,21 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -673,10 +649,10 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -684,43 +660,43 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -728,21 +704,21 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -750,32 +726,32 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -783,10 +759,10 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -794,21 +770,21 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -816,10 +792,10 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -827,21 +803,21 @@
         <v>17</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -849,10 +825,10 @@
         <v>18</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -860,10 +836,10 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -871,10 +847,10 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -882,10 +858,10 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -893,10 +869,10 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -904,10 +880,10 @@
         <v>21</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -918,7 +894,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -929,117 +905,117 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1047,10 +1023,10 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1058,10 +1034,10 @@
         <v>30</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1069,10 +1045,10 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1080,10 +1056,10 @@
         <v>31</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1091,10 +1067,10 @@
         <v>32</v>
       </c>
       <c r="B48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1102,21 +1078,21 @@
         <v>33</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1124,21 +1100,21 @@
         <v>34</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1146,472 +1122,285 @@
         <v>35</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B72">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B73">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B74">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82">
-        <v>11</v>
-      </c>
-      <c r="C82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87">
-        <v>13</v>
-      </c>
-      <c r="C87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>59</v>
-      </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93">
-        <v>13</v>
-      </c>
-      <c r="C93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94">
-        <v>26</v>
-      </c>
-      <c r="C94" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95">
-        <v>15</v>
-      </c>
-      <c r="C95" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="52">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,163 +25,151 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>253 Hoddle Street Apartment Complex Collingwood</t>
+  </si>
+  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
+    <t>7 Chefs Fawkner</t>
+  </si>
+  <si>
     <t>Acquire BPO Southbank</t>
   </si>
   <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
-    <t>Al-Taqwa College Truganina</t>
-  </si>
-  <si>
-    <t>Broadmeadows Medical Centre Broadmeadows</t>
-  </si>
-  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
     <t>Can Panel Cambellfield</t>
   </si>
   <si>
-    <t>Can Panel Campbellfield</t>
+    <t>Cannie Road Construction Site Cannie</t>
+  </si>
+  <si>
+    <t>Caroline Springs Police Station</t>
   </si>
   <si>
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
-    <t>City of Moreland Community</t>
-  </si>
-  <si>
     <t>City of Wyndham Community</t>
   </si>
   <si>
-    <t>Coles Aurora Village Epping</t>
-  </si>
-  <si>
-    <t>Coles Barkly Square Brunswick August</t>
-  </si>
-  <si>
-    <t>Coles Campbellfield Plaza Campbellfield</t>
-  </si>
-  <si>
-    <t>Coles Coburg North Village</t>
-  </si>
-  <si>
-    <t>Coles Coburg North Village Aug</t>
-  </si>
-  <si>
-    <t>Coles Greenvale Shopping Centre</t>
-  </si>
-  <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
+    <t>Classy Cabinets and Kitchens Craigieburn</t>
+  </si>
+  <si>
+    <t>Community Kids Meadow Heights</t>
+  </si>
+  <si>
+    <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>DRC Laverton Automotive Repairs Laverton North</t>
+    <t>Croydon Orthodontics</t>
   </si>
   <si>
     <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellield</t>
-  </si>
-  <si>
-    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
+    <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
+    <t>Fonterra Manufacturing Workplace Campbellfield</t>
+  </si>
+  <si>
     <t>Glenroy West Primary School</t>
   </si>
   <si>
-    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
-  </si>
-  <si>
-    <t>Health Care Providers Association South Melbourne</t>
-  </si>
-  <si>
-    <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
-  </si>
-  <si>
-    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
-  </si>
-  <si>
-    <t>Ilim Leaning Sanctuary Glenroy</t>
-  </si>
-  <si>
-    <t>Ilim Learning Sanctuary Glenroy</t>
-  </si>
-  <si>
-    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
+    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
     <t>KFC Fawkner</t>
   </si>
   <si>
-    <t>Malvern Health and Fitness Clinic Malvern</t>
-  </si>
-  <si>
-    <t>McDonalds Thomastown II</t>
-  </si>
-  <si>
-    <t>National Gallery of Victoria Melbourne</t>
-  </si>
-  <si>
-    <t>Newport Gardens Early Years Centre Newport</t>
+    <t>Kasr Sweets Coolaroo</t>
+  </si>
+  <si>
+    <t>Learning Nest Early Learning Centre Meadow Heights</t>
+  </si>
+  <si>
+    <t>Lineage Logistics Laverton North</t>
+  </si>
+  <si>
+    <t>Linfox Somerton National Distribution Centre Somerton</t>
+  </si>
+  <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
+    <t>Melbourne Truck Repairs Campbellfield</t>
+  </si>
+  <si>
+    <t>Melbourne Youth Justice Centre Parkville</t>
+  </si>
+  <si>
+    <t>Mercy Hospital for Women Heidelberg</t>
+  </si>
+  <si>
+    <t>Newbury Child and Community Centre Craigieburn</t>
+  </si>
+  <si>
+    <t>Newport Football Club Altona North</t>
+  </si>
+  <si>
+    <t>Nido Early School Moonee Ponds</t>
+  </si>
+  <si>
+    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
+  </si>
+  <si>
+    <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
     <t>Oporto Coolaroo</t>
   </si>
   <si>
+    <t>Oscar Romero Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
-  </si>
-  <si>
     <t>Serco Mill Park</t>
   </si>
   <si>
+    <t>Tek Foods Somerton</t>
+  </si>
+  <si>
+    <t>The Homestead Child and Family Centre Roxburgh Park</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>ThorwestenCabinets Pakenham</t>
+  </si>
+  <si>
     <t>Tip Top Warehouse Dandenong</t>
   </si>
   <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospistal Emergency Department</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Who is Bunker Spreckels Cafe Elwood</t>
-  </si>
-  <si>
-    <t>Woolworths Greenvale Lakes Roxburgh Park</t>
+    <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
     <t>Yara Childcare Centre Truganina</t>
   </si>
   <si>
-    <t>Yarra Childcare Centre Truganina</t>
+    <t>new</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -539,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,21 +549,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -583,76 +571,76 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -663,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -674,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,21 +670,21 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,21 +692,21 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,164 +714,164 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
         <v>16</v>
       </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -891,516 +879,560 @@
         <v>21</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B61">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B62">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="61">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,13 +25,13 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>253 Hoddle Street Apartment Complex Collingwood</t>
-  </si>
-  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>7 Chefs Fawkner</t>
+    <t>A1 Bakery Brunswick</t>
+  </si>
+  <si>
+    <t>ABD Group 512 Melbourne Road Construction Site Spotswood</t>
   </si>
   <si>
     <t>Acquire BPO Southbank</t>
@@ -40,10 +40,13 @@
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Can Panel Cambellfield</t>
+    <t>Al-Taqwa College Truganina</t>
+  </si>
+  <si>
+    <t>Best&amp;Less Fountain Gate Narre Warren</t>
+  </si>
+  <si>
+    <t>Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
     <t>Cannie Road Construction Site Cannie</t>
@@ -52,58 +55,79 @@
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
+    <t>Cedars Medical Clinic Coburg</t>
+  </si>
+  <si>
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
-    <t>City of Wyndham Community</t>
-  </si>
-  <si>
     <t>Classy Cabinets and Kitchens Craigieburn</t>
   </si>
   <si>
+    <t>Coles Broadmeadows Central Shopping Centre</t>
+  </si>
+  <si>
+    <t>Coles Campbellfield Plaza Campbellfield</t>
+  </si>
+  <si>
+    <t>Coles Pakenham Place Shopping Centre</t>
+  </si>
+  <si>
+    <t>Coles Roxburgh Village Roxburgh Park</t>
+  </si>
+  <si>
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
-    <t>Costco Wholesale Epping</t>
-  </si>
-  <si>
-    <t>Croydon Orthodontics</t>
-  </si>
-  <si>
-    <t>Direct Freight Express Cambellfield</t>
+    <t>Crusader Caravans Epping</t>
   </si>
   <si>
     <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
+    <t>Elite Smart Community Care Campbellfield</t>
+  </si>
+  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
-    <t>Glenroy West Primary School</t>
-  </si>
-  <si>
-    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
-  </si>
-  <si>
-    <t>KFC Fawkner</t>
+    <t>Gumboots Early Learning Centre South Morang</t>
+  </si>
+  <si>
+    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
+  </si>
+  <si>
+    <t>Ibis Kingsgate Hotel Melbourne</t>
+  </si>
+  <si>
+    <t>Ilim College Glenroy Campus Hadfield</t>
+  </si>
+  <si>
+    <t>Ilim Learning Sanctuary Glenroy</t>
+  </si>
+  <si>
+    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
+  </si>
+  <si>
+    <t>Islamic College of Melbourne Tarneit</t>
   </si>
   <si>
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
+    <t>Kids House Early Learning Cheltenham</t>
+  </si>
+  <si>
     <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
-    <t>Lineage Logistics Laverton North</t>
-  </si>
-  <si>
-    <t>Linfox Somerton National Distribution Centre Somerton</t>
+    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
@@ -112,40 +136,43 @@
     <t>Melbourne Truck Repairs Campbellfield</t>
   </si>
   <si>
+    <t>Melbourne West Police Station Docklands</t>
+  </si>
+  <si>
     <t>Melbourne Youth Justice Centre Parkville</t>
   </si>
   <si>
-    <t>Mercy Hospital for Women Heidelberg</t>
+    <t>Montessori Beginnings Greenvale</t>
+  </si>
+  <si>
+    <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
     <t>Newbury Child and Community Centre Craigieburn</t>
   </si>
   <si>
-    <t>Newport Football Club Altona North</t>
-  </si>
-  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
-    <t>OnQ Plumbing and Excavations Craigieburn</t>
-  </si>
-  <si>
     <t>Oporto Coolaroo</t>
   </si>
   <si>
     <t>Oscar Romero Catholic Primary School Craigieburn</t>
   </si>
   <si>
-    <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
+    <t>Paisley Park Early Learning Centre Bundoora</t>
+  </si>
+  <si>
+    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
     <t>Serco Mill Park</t>
   </si>
   <si>
-    <t>Tek Foods Somerton</t>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
     <t>The Homestead Child and Family Centre Roxburgh Park</t>
@@ -160,16 +187,16 @@
     <t>Tip Top Warehouse Dandenong</t>
   </si>
   <si>
-    <t>Total Window Concepts Hoppers Crossing</t>
-  </si>
-  <si>
-    <t>Yara Childcare Centre Truganina</t>
+    <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -527,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,21 +576,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,10 +598,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,10 +620,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,10 +642,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,10 +653,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,10 +664,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,10 +675,10 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -662,18 +689,18 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,10 +708,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -695,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,10 +730,10 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,10 +741,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,10 +752,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,10 +785,10 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,10 +796,10 @@
         <v>14</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,10 +807,10 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,10 +818,10 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,10 +829,10 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -816,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,10 +851,10 @@
         <v>17</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,10 +862,10 @@
         <v>17</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,219 +873,219 @@
         <v>18</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,21 +1093,21 @@
         <v>30</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,21 +1115,21 @@
         <v>31</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1110,21 +1137,21 @@
         <v>32</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1132,21 +1159,21 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1154,285 +1181,516 @@
         <v>34</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B74">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83">
+        <v>46</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>49</v>
       </c>
-      <c r="B82">
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94">
         <v>13</v>
       </c>
-      <c r="C82" t="s">
-        <v>51</v>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,16 +25,13 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>253 Hoddle Street Apartment Complex Collingwood</t>
+  </si>
+  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>A1 Bakery Brunswick</t>
-  </si>
-  <si>
-    <t>ABD Group 512 Melbourne Road Construction Site Spotswood</t>
-  </si>
-  <si>
-    <t>Acquire BPO Southbank</t>
+    <t>Adorn Cosmetics Clayton</t>
   </si>
   <si>
     <t>Al Haj Halal Meats Glenroy</t>
@@ -43,33 +40,36 @@
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Best&amp;Less Fountain Gate Narre Warren</t>
-  </si>
-  <si>
-    <t>Campbellfield Heights Primary School Campbellfield</t>
+    <t>Amiga Montessori Craigieburn</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs</t>
   </si>
   <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
-    <t>Caroline Springs Police Station</t>
-  </si>
-  <si>
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
+    <t>Chemist Warehouse Campbellfield DC</t>
+  </si>
+  <si>
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
-    <t>Classy Cabinets and Kitchens Craigieburn</t>
-  </si>
-  <si>
-    <t>Coles Broadmeadows Central Shopping Centre</t>
+    <t>City of Moreland Community</t>
+  </si>
+  <si>
+    <t>City of Wyndham Community</t>
   </si>
   <si>
     <t>Coles Campbellfield Plaza Campbellfield</t>
   </si>
   <si>
+    <t>Coles Coburg North Village</t>
+  </si>
+  <si>
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
@@ -82,28 +82,37 @@
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
+    <t>Costco Wholesale Epping</t>
+  </si>
+  <si>
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
+    <t>Direct Freight Express Cambellfield</t>
+  </si>
+  <si>
     <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
-    <t>Elite Smart Community Care Campbellfield</t>
+    <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
-    <t>Fonterra Manufacturing Workplace Campbellfield</t>
-  </si>
-  <si>
-    <t>Gumboots Early Learning Centre South Morang</t>
-  </si>
-  <si>
-    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
-  </si>
-  <si>
-    <t>Ibis Kingsgate Hotel Melbourne</t>
+    <t>Glenroy West Primary School</t>
+  </si>
+  <si>
+    <t>Goodstart Early Learning Altona</t>
+  </si>
+  <si>
+    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
+  </si>
+  <si>
+    <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
+  </si>
+  <si>
+    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
     <t>Ilim College Glenroy Campus Hadfield</t>
@@ -112,6 +121,9 @@
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
+    <t>Impact Designer Homes Epping</t>
+  </si>
+  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -121,58 +133,46 @@
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
-    <t>Kids House Early Learning Cheltenham</t>
-  </si>
-  <si>
     <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
-    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
-  </si>
-  <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Melbourne Truck Repairs Campbellfield</t>
-  </si>
-  <si>
-    <t>Melbourne West Police Station Docklands</t>
-  </si>
-  <si>
-    <t>Melbourne Youth Justice Centre Parkville</t>
-  </si>
-  <si>
-    <t>Montessori Beginnings Greenvale</t>
-  </si>
-  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
     <t>Newbury Child and Community Centre Craigieburn</t>
   </si>
   <si>
-    <t>Nido Early School Moonee Ponds</t>
+    <t>Nino Early Learning Adventures Lalor</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
-    <t>Oporto Coolaroo</t>
-  </si>
-  <si>
-    <t>Oscar Romero Catholic Primary School Craigieburn</t>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
+    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
     <t>Paisley Park Early Learning Centre Bundoora</t>
   </si>
   <si>
-    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
-  </si>
-  <si>
-    <t>Serco Mill Park</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
+    <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
+  </si>
+  <si>
+    <t>People First Healthcare Home Residence Disability Support Taylors Lakes</t>
+  </si>
+  <si>
+    <t>Private Residence Northern Community Services Fawkner</t>
+  </si>
+  <si>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
+  </si>
+  <si>
+    <t>Sharpline Stainless Steel Coburg North</t>
+  </si>
+  <si>
+    <t>Tek Foods Somerton</t>
   </si>
   <si>
     <t>The Homestead Child and Family Centre Roxburgh Park</t>
@@ -181,16 +181,13 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>ThorwestenCabinets Pakenham</t>
-  </si>
-  <si>
-    <t>Tip Top Warehouse Dandenong</t>
-  </si>
-  <si>
-    <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
+    <t>Western Health Footscray Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Woolworths Greenvale Lakes Roxburgh Park</t>
   </si>
   <si>
     <t>old</t>
@@ -554,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,21 +573,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -598,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -612,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -620,10 +617,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -631,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -642,10 +639,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -653,10 +650,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -664,21 +661,21 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -686,15 +683,15 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -708,10 +705,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -719,10 +716,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -730,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>59</v>
@@ -738,13 +735,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -752,10 +749,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -763,18 +760,18 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -785,18 +782,18 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
@@ -807,21 +804,21 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -832,15 +829,15 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
@@ -851,21 +848,21 @@
         <v>17</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -873,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -881,13 +878,13 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -895,18 +892,18 @@
         <v>19</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
@@ -920,18 +917,18 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -939,7 +936,7 @@
         <v>21</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>59</v>
@@ -947,13 +944,13 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -961,10 +958,10 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -972,10 +969,10 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -983,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -994,7 +991,7 @@
         <v>24</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
@@ -1005,18 +1002,18 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>59</v>
@@ -1024,10 +1021,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
@@ -1035,24 +1032,24 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1060,7 +1057,7 @@
         <v>28</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
@@ -1068,65 +1065,65 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -1134,10 +1131,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>59</v>
@@ -1145,21 +1142,21 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
         <v>59</v>
@@ -1167,54 +1164,54 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>59</v>
@@ -1222,21 +1219,21 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>59</v>
@@ -1244,65 +1241,65 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>59</v>
@@ -1310,43 +1307,43 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
         <v>59</v>
@@ -1354,21 +1351,21 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>59</v>
@@ -1376,98 +1373,98 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B82">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B83">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>59</v>
@@ -1475,32 +1472,32 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B84">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B85">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>59</v>
@@ -1508,32 +1505,32 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B88">
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
         <v>59</v>
@@ -1541,21 +1538,21 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>59</v>
@@ -1563,21 +1560,21 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>59</v>
@@ -1585,112 +1582,24 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B94">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98">
-        <v>12</v>
-      </c>
-      <c r="C98" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>57</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>58</v>
-      </c>
-      <c r="B102">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>58</v>
-      </c>
-      <c r="B103">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,13 +25,10 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>253 Hoddle Street Apartment Complex Collingwood</t>
-  </si>
-  <si>
-    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
-  </si>
-  <si>
-    <t>Adorn Cosmetics Clayton</t>
+    <t>ABD Group 512 Melbourne Road Construction Site Spotswood</t>
+  </si>
+  <si>
+    <t>Acquire BPO Southbank</t>
   </si>
   <si>
     <t>Al Haj Halal Meats Glenroy</t>
@@ -43,10 +40,13 @@
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Cannie Road Construction Site Cannie</t>
+    <t>Anglicare Home Princes Hwy Dandenong</t>
+  </si>
+  <si>
+    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
+  </si>
+  <si>
+    <t>Caroline Springs Police Station</t>
   </si>
   <si>
     <t>Cedars Medical Clinic Coburg</t>
@@ -55,13 +55,19 @@
     <t>Chemist Warehouse Campbellfield DC</t>
   </si>
   <si>
+    <t>Chemist Warehouse Fillo Drive Somerton</t>
+  </si>
+  <si>
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
-    <t>City of Wyndham Community</t>
+    <t>Classy Cabinets and Kitchens Craigieburn</t>
+  </si>
+  <si>
+    <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
     <t>Coles Campbellfield Plaza Campbellfield</t>
@@ -70,6 +76,9 @@
     <t>Coles Coburg North Village</t>
   </si>
   <si>
+    <t>Coles Pakenham Place Shopping</t>
+  </si>
+  <si>
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
@@ -79,9 +88,6 @@
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
-    <t>Construction Site Olea Apartment Caulfield North</t>
-  </si>
-  <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
@@ -94,13 +100,16 @@
     <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
+    <t>Don Watson Coldstore Derrimut</t>
+  </si>
+  <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
-    <t>Fitzroy Community School Fitzroy North</t>
-  </si>
-  <si>
-    <t>Glenroy West Primary School</t>
+    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
+  </si>
+  <si>
+    <t>General foods Campbellfield</t>
   </si>
   <si>
     <t>Goodstart Early Learning Altona</t>
@@ -109,40 +118,40 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
-  </si>
-  <si>
-    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
-  </si>
-  <si>
-    <t>Ilim College Glenroy Campus Hadfield</t>
-  </si>
-  <si>
-    <t>Ilim Learning Sanctuary Glenroy</t>
-  </si>
-  <si>
-    <t>Impact Designer Homes Epping</t>
-  </si>
-  <si>
-    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
+    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
+  </si>
+  <si>
+    <t>Health Care Providers Association South Melbourne</t>
   </si>
   <si>
     <t>Islamic College of Melbourne Tarneit</t>
   </si>
   <si>
-    <t>Kasr Sweets Coolaroo</t>
+    <t>KFC Fawkner</t>
+  </si>
+  <si>
+    <t>Kids House Early Learning Cheltenham</t>
   </si>
   <si>
     <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
+    <t>McDonalds Thomastown II</t>
+  </si>
+  <si>
+    <t>Melton Police Station Melton</t>
+  </si>
+  <si>
+    <t>Montessori Beginnings Greenvale</t>
+  </si>
+  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
     <t>Newbury Child and Community Centre Craigieburn</t>
   </si>
   <si>
-    <t>Nino Early Learning Adventures Lalor</t>
+    <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
@@ -151,6 +160,9 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
+    <t>Oporto Coolaroo</t>
+  </si>
+  <si>
     <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
@@ -160,16 +172,16 @@
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>People First Healthcare Home Residence Disability Support Taylors Lakes</t>
-  </si>
-  <si>
-    <t>Private Residence Northern Community Services Fawkner</t>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site</t>
   </si>
   <si>
     <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
-    <t>Sharpline Stainless Steel Coburg North</t>
+    <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
+  </si>
+  <si>
+    <t>St Margaret's Primary School Maribyrnong</t>
   </si>
   <si>
     <t>Tek Foods Somerton</t>
@@ -178,16 +190,25 @@
     <t>The Homestead Child and Family Centre Roxburgh Park</t>
   </si>
   <si>
+    <t>The Huntly-Goornong Rail Works</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
+    <t>Unilodge College Square Student Accommodation 570 Lygon Street</t>
+  </si>
+  <si>
+    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Woolworths Greenvale Lakes Roxburgh Park</t>
+    <t>Yara Childcare Centre Truganina</t>
   </si>
   <si>
     <t>old</t>
@@ -551,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -584,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -595,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -606,21 +627,21 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -628,21 +649,21 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -650,10 +671,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -661,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -672,21 +693,21 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -694,21 +715,21 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -716,10 +737,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -730,18 +751,18 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -749,10 +770,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -763,18 +784,18 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -782,10 +803,10 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -793,10 +814,10 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -804,10 +825,10 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -815,10 +836,10 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -826,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -837,10 +858,10 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -848,10 +869,10 @@
         <v>17</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -859,10 +880,10 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -870,10 +891,10 @@
         <v>18</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -881,10 +902,10 @@
         <v>19</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -892,10 +913,10 @@
         <v>19</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -903,98 +924,98 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1002,10 +1023,10 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1013,10 +1034,10 @@
         <v>26</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1024,417 +1045,417 @@
         <v>27</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B72">
         <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B75">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1442,21 +1463,21 @@
         <v>50</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1464,10 +1485,10 @@
         <v>51</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1475,131 +1496,208 @@
         <v>52</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B85">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="65">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>ABD Group 512 Melbourne Road Construction Site Spotswood</t>
+    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
     <t>Acquire BPO Southbank</t>
@@ -34,46 +34,22 @@
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
-    <t>Al-Taqwa College Truganina</t>
-  </si>
-  <si>
-    <t>Amiga Montessori Craigieburn</t>
-  </si>
-  <si>
     <t>Anglicare Home Princes Hwy Dandenong</t>
   </si>
   <si>
-    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
-  </si>
-  <si>
-    <t>Caroline Springs Police Station</t>
+    <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
-    <t>Chemist Warehouse Campbellfield DC</t>
-  </si>
-  <si>
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
-    <t>City of Moreland Community</t>
-  </si>
-  <si>
-    <t>Classy Cabinets and Kitchens Craigieburn</t>
-  </si>
-  <si>
-    <t>Coles Broadmeadows Central Shopping Centre</t>
-  </si>
-  <si>
-    <t>Coles Campbellfield Plaza Campbellfield</t>
-  </si>
-  <si>
-    <t>Coles Coburg North Village</t>
+    <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
     <t>Coles Pakenham Place Shopping</t>
@@ -85,7 +61,7 @@
     <t>Coles Roxburgh Village Roxburgh Park</t>
   </si>
   <si>
-    <t>Community Kids Meadow Heights</t>
+    <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
@@ -100,15 +76,18 @@
     <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimut</t>
-  </si>
-  <si>
-    <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
-  </si>
-  <si>
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
+    <t>Fitzroy Community School Fitzroy North</t>
+  </si>
+  <si>
+    <t>Fonterra Manufacturing Workplace Campbellfield</t>
+  </si>
+  <si>
+    <t>General Foods Campbellfield</t>
+  </si>
+  <si>
     <t>General foods Campbellfield</t>
   </si>
   <si>
@@ -118,13 +97,22 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
-  </si>
-  <si>
     <t>Health Care Providers Association South Melbourne</t>
   </si>
   <si>
-    <t>Islamic College of Melbourne Tarneit</t>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
+    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
+  </si>
+  <si>
+    <t>Ilim College Glenroy Campus Hadfield</t>
+  </si>
+  <si>
+    <t>Ilim Learning Sanctuary Glenroy</t>
+  </si>
+  <si>
+    <t>Impact Designer Homes Epping</t>
   </si>
   <si>
     <t>KFC Fawkner</t>
@@ -133,27 +121,36 @@
     <t>Kids House Early Learning Cheltenham</t>
   </si>
   <si>
-    <t>Learning Nest Early Learning Centre Meadow Heights</t>
+    <t>Kippers Seafood Werribee</t>
+  </si>
+  <si>
+    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
     <t>McDonalds Thomastown II</t>
   </si>
   <si>
-    <t>Melton Police Station Melton</t>
-  </si>
-  <si>
-    <t>Montessori Beginnings Greenvale</t>
+    <t>Mecca D.C Warehouse Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne</t>
+  </si>
+  <si>
+    <t>Melbourne Youth Justice Centre Parkville</t>
+  </si>
+  <si>
+    <t>Mill Park Police Station Mill Park</t>
   </si>
   <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
-    <t>Newbury Child and Community Centre Craigieburn</t>
-  </si>
-  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
+    <t>North Geelong House Party</t>
+  </si>
+  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
@@ -163,7 +160,7 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
-    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
+    <t>Oscar Romero Catholic Primary School Craigieburn</t>
   </si>
   <si>
     <t>Paisley Park Early Learning Centre Bundoora</t>
@@ -181,16 +178,16 @@
     <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
+    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
+  </si>
+  <si>
     <t>St Margaret's Primary School Maribyrnong</t>
   </si>
   <si>
-    <t>Tek Foods Somerton</t>
-  </si>
-  <si>
-    <t>The Homestead Child and Family Centre Roxburgh Park</t>
-  </si>
-  <si>
-    <t>The Huntly-Goornong Rail Works</t>
+    <t>St Margaret's Primary School OSHC Maribyrnong</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
@@ -202,19 +199,16 @@
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
     <t>Yara Childcare Centre Truganina</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -572,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,21 +588,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -616,10 +610,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -630,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -641,7 +635,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -652,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -660,10 +654,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -671,76 +665,76 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>28</v>
-      </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -748,21 +742,21 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -770,10 +764,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -781,21 +775,21 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -803,10 +797,10 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -814,21 +808,21 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -836,21 +830,21 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -858,10 +852,10 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -869,10 +863,10 @@
         <v>17</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -880,54 +874,54 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -935,10 +929,10 @@
         <v>21</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -946,10 +940,10 @@
         <v>22</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -957,10 +951,10 @@
         <v>22</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -968,76 +962,76 @@
         <v>23</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1045,10 +1039,10 @@
         <v>27</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1059,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1067,10 +1061,10 @@
         <v>29</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1078,10 +1072,10 @@
         <v>29</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1089,54 +1083,54 @@
         <v>30</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1144,21 +1138,21 @@
         <v>33</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1166,21 +1160,21 @@
         <v>34</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1188,10 +1182,10 @@
         <v>35</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1199,21 +1193,21 @@
         <v>36</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1221,10 +1215,10 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1232,76 +1226,76 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1309,32 +1303,32 @@
         <v>43</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1342,21 +1336,21 @@
         <v>45</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1364,21 +1358,21 @@
         <v>46</v>
       </c>
       <c r="B72">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1386,241 +1380,241 @@
         <v>47</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B82">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B87">
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B94">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B95">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1628,10 +1622,10 @@
         <v>61</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1642,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1650,54 +1644,10 @@
         <v>62</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>63</v>
-      </c>
-      <c r="B99">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>63</v>
-      </c>
-      <c r="B100">
-        <v>11</v>
-      </c>
-      <c r="C100" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,58 +25,67 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
-  </si>
-  <si>
-    <t>Acquire BPO Southbank</t>
+    <t>95 Napier Street Apartment Complex Fitzroy</t>
   </si>
   <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
+    <t>Amiga Montessori Craigieburn</t>
+  </si>
+  <si>
     <t>Anglicare Home Princes Hwy Dandenong</t>
   </si>
   <si>
+    <t>Australia Post Distribution Centre Sunshine West</t>
+  </si>
+  <si>
+    <t>Baxter Foods Australia Campbellfield</t>
+  </si>
+  <si>
+    <t>Budget Car and Truck Rentals Campbellfield</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs</t>
+  </si>
+  <si>
+    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
+  </si>
+  <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
-    <t>Chemist Warehouse Fillo Drive Somerton</t>
-  </si>
-  <si>
-    <t>City of Hobsons Bay Community</t>
+    <t>Coles Broadmeadows Central Shopping Centre</t>
+  </si>
+  <si>
+    <t>Coles Coburg North Village</t>
   </si>
   <si>
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Pakenham Place Shopping</t>
-  </si>
-  <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
-  </si>
-  <si>
     <t>Coles Roxburgh Village Roxburgh Park</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
+    <t>Construction Site Olea Apartment Caulfield North</t>
+  </si>
+  <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
-    <t>Direct Freight Express Cambellfield</t>
-  </si>
-  <si>
-    <t>Direct Freight Express Campbellfield</t>
-  </si>
-  <si>
-    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
+    <t>DRC Laverton Automotive Repairs Laverton North</t>
+  </si>
+  <si>
+    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
@@ -88,21 +97,15 @@
     <t>General Foods Campbellfield</t>
   </si>
   <si>
-    <t>General foods Campbellfield</t>
-  </si>
-  <si>
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
+    <t>Green Leaves Early Learning Cairnlea</t>
+  </si>
+  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Health Care Providers Association South Melbourne</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
@@ -112,97 +115,85 @@
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
-    <t>Impact Designer Homes Epping</t>
-  </si>
-  <si>
-    <t>KFC Fawkner</t>
-  </si>
-  <si>
-    <t>Kids House Early Learning Cheltenham</t>
-  </si>
-  <si>
-    <t>Kippers Seafood Werribee</t>
+    <t>Kasr Sweets Coolaroo</t>
+  </si>
+  <si>
+    <t>Kool Kidz Childcare Narre Warren</t>
+  </si>
+  <si>
+    <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
-    <t>McDonalds Thomastown II</t>
-  </si>
-  <si>
-    <t>Mecca D.C Warehouse Melbourne Airport</t>
-  </si>
-  <si>
-    <t>Melbourne Assessment Prison West Melbourne</t>
-  </si>
-  <si>
-    <t>Melbourne Youth Justice Centre Parkville</t>
+    <t>McDonald's Craigieburn North</t>
   </si>
   <si>
     <t>Mill Park Police Station Mill Park</t>
   </si>
   <si>
-    <t>MyCentre Childcare Broadmeadows</t>
+    <t>Nido Early School Ascot Vale</t>
+  </si>
+  <si>
+    <t>Nido Early School Glenroy</t>
   </si>
   <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
-    <t>North Geelong House Party</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>Oporto Coolaroo</t>
+    <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
     <t>Oscar Romero Catholic Primary School Craigieburn</t>
   </si>
   <si>
-    <t>Paisley Park Early Learning Centre Bundoora</t>
-  </si>
-  <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site</t>
-  </si>
-  <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
-  </si>
-  <si>
-    <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
-  </si>
-  <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
-    <t>St Margaret's Primary School Maribyrnong</t>
-  </si>
-  <si>
-    <t>St Margaret's Primary School OSHC Maribyrnong</t>
+    <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Sultan Halal Meats &amp; Poultry Campbellfield</t>
+  </si>
+  <si>
+    <t>Tek Foods Somerton</t>
+  </si>
+  <si>
+    <t>The Homestead Child and Family Centre Roxburgh Park</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street</t>
+    <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
+  </si>
+  <si>
+    <t>ThorwestenCabinets Pakenham</t>
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
+    <t>Wallaby Childcare Wollert</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Yara Childcare Centre Truganina</t>
   </si>
   <si>
     <t>new</t>
@@ -566,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,21 +579,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -610,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -621,10 +612,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -632,10 +623,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -646,139 +637,139 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -789,18 +780,18 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -808,10 +799,10 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -819,10 +810,10 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -830,10 +821,10 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -841,10 +832,10 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -852,21 +843,21 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -874,10 +865,10 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -885,21 +876,21 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -907,21 +898,21 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -929,725 +920,747 @@
         <v>21</v>
       </c>
       <c r="B33">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
         <v>22</v>
       </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50">
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B65">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B69">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B70">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B87">
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B92">
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B94">
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B96">
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99">
         <v>9</v>
       </c>
-      <c r="C98" t="s">
-        <v>64</v>
+      <c r="C99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>95 Napier Street Apartment Complex Fitzroy</t>
+    <t>Adorn Cosmetics Clayton</t>
   </si>
   <si>
     <t>Al Haj Halal Meats Glenroy</t>
@@ -34,13 +34,7 @@
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
-    <t>Anglicare Home Princes Hwy Dandenong</t>
-  </si>
-  <si>
-    <t>Australia Post Distribution Centre Sunshine West</t>
-  </si>
-  <si>
-    <t>Baxter Foods Australia Campbellfield</t>
+    <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
     <t>Budget Car and Truck Rentals Campbellfield</t>
@@ -49,64 +43,100 @@
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
+    <t>Cafe Roco Dandenong</t>
+  </si>
+  <si>
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
+    <t>Caroline Springs Police Station</t>
+  </si>
+  <si>
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
+    <t>City of Moreland Community</t>
+  </si>
+  <si>
+    <t>Classy Cabinets and Kitchens Craigieburn</t>
+  </si>
+  <si>
+    <t>Coles Aurora Village Epping</t>
+  </si>
+  <si>
     <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
+    <t>Coles Campbellfield Plaza Campbellfield</t>
+  </si>
+  <si>
     <t>Coles Coburg North Village</t>
   </si>
   <si>
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
+    <t>Coles Pakenham Place Shopping Centre</t>
+  </si>
+  <si>
     <t>Coles Roxburgh Village Roxburgh Park</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
+    <t>Community Kids Meadow Heights</t>
+  </si>
+  <si>
+    <t>Construction Site 1 Warde Street Footscray</t>
+  </si>
+  <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Crusader Caravans Epping</t>
-  </si>
-  <si>
-    <t>DRC Laverton Automotive Repairs Laverton North</t>
-  </si>
-  <si>
-    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
+    <t>Direct Freight Express Cambellfield</t>
+  </si>
+  <si>
+    <t>Disability Residence Life without Barriers Ashwood</t>
+  </si>
+  <si>
+    <t>FedEx Station Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
-    <t>Fonterra Manufacturing Workplace Campbellfield</t>
-  </si>
-  <si>
-    <t>General Foods Campbellfield</t>
-  </si>
-  <si>
-    <t>Goodstart Early Learning Altona</t>
-  </si>
-  <si>
-    <t>Green Leaves Early Learning Cairnlea</t>
+    <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
+  </si>
+  <si>
+    <t>Glenroy West Primary School</t>
   </si>
   <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
+    <t>Gumboots Early Learning Centre South Morang</t>
+  </si>
+  <si>
+    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
+  </si>
+  <si>
+    <t>Health Care Providers Association South Melbourne</t>
+  </si>
+  <si>
+    <t>Hickory Construction Site Chadstone Car Park Malvern East</t>
+  </si>
+  <si>
+    <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
     <t>Ilim College Glenroy Campus Hadfield</t>
@@ -115,22 +145,55 @@
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
+    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
+  </si>
+  <si>
+    <t>Inghams Enterprises Thomastown</t>
+  </si>
+  <si>
+    <t>KFC Fawkner</t>
+  </si>
+  <si>
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
+    <t>Kids House Early Learning Cheltenham</t>
+  </si>
+  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
     <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
-    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
-  </si>
-  <si>
-    <t>McDonald's Craigieburn North</t>
-  </si>
-  <si>
-    <t>Mill Park Police Station Mill Park</t>
+    <t>Lineage Logistics Laverton North</t>
+  </si>
+  <si>
+    <t>Linfox Somerton National Distribution Centre Somerton</t>
+  </si>
+  <si>
+    <t>Mecca D.C Warehouse Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne</t>
+  </si>
+  <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
+    <t>Melbourne Truck Repairs Campbellfield</t>
+  </si>
+  <si>
+    <t>Melbourne West Police Station Docklands</t>
+  </si>
+  <si>
+    <t>Mercy Hospital for Women Heidelberg</t>
+  </si>
+  <si>
+    <t>Mernda YMCA Early Learning Centre Mernda</t>
+  </si>
+  <si>
+    <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
     <t>Nido Early School Ascot Vale</t>
@@ -151,55 +214,64 @@
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
+    <t>Oporto Coolaroo</t>
+  </si>
+  <si>
     <t>Oscar Romero Catholic Primary School Craigieburn</t>
   </si>
   <si>
+    <t>Pacific Meat Thomastown</t>
+  </si>
+  <si>
+    <t>Paisley Park Early Learning Centre Bundoora</t>
+  </si>
+  <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
-  </si>
-  <si>
-    <t>Sharpline Stainless Steel Coburg North</t>
+    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
+  </si>
+  <si>
+    <t>Ravenhall Correctional Centre Ravenhall</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Sultan Halal Meats &amp; Poultry Campbellfield</t>
-  </si>
-  <si>
     <t>Tek Foods Somerton</t>
   </si>
   <si>
     <t>The Homestead Child and Family Centre Roxburgh Park</t>
   </si>
   <si>
+    <t>The Huntly-Goornong Rail Works</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
     <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
   </si>
   <si>
-    <t>ThorwestenCabinets Pakenham</t>
-  </si>
-  <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
     <t>Wallaby Childcare Wollert</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
+    <t>Western Health Footscray Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Woolworths Greenvale Lakes Roxburgh Park</t>
+  </si>
+  <si>
+    <t>Yara Childcare Centre Truganina</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -557,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -590,10 +662,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -601,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -612,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -623,10 +695,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -637,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -648,51 +720,51 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -700,21 +772,21 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -722,10 +794,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -733,21 +805,21 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -755,21 +827,21 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -777,10 +849,10 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -788,879 +860,1275 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B68">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B69">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B72">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B73">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B82">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B87">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B90">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B95">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B96">
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B98">
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B100">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101">
+        <v>62</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118">
         <v>10</v>
       </c>
-      <c r="C100" t="s">
-        <v>61</v>
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>74</v>
+      </c>
+      <c r="B120">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127">
+        <v>27</v>
+      </c>
+      <c r="C127" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>80</v>
+      </c>
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="73">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,19 +25,28 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Adorn Cosmetics Clayton</t>
+    <t>126 Racecourse Road Public Housing Tower Flemington</t>
+  </si>
+  <si>
+    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
+    <t>Al-Taqwa College Truganina</t>
+  </si>
+  <si>
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
-    <t>Best&amp;Less Fountain Gate Narre Warren</t>
-  </si>
-  <si>
-    <t>Budget Car and Truck Rentals Campbellfield</t>
+    <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
+  </si>
+  <si>
+    <t>Australian Lamb Colac East</t>
+  </si>
+  <si>
+    <t>CFMEU Melbourne Office</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
@@ -46,9 +55,6 @@
     <t>Cafe Roco Dandenong</t>
   </si>
   <si>
-    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
-  </si>
-  <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
@@ -58,88 +64,55 @@
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
-    <t>City of Moreland Community</t>
-  </si>
-  <si>
-    <t>Classy Cabinets and Kitchens Craigieburn</t>
-  </si>
-  <si>
-    <t>Coles Aurora Village Epping</t>
+    <t>City of Wyndham Community</t>
   </si>
   <si>
     <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Campbellfield Plaza Campbellfield</t>
-  </si>
-  <si>
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Greenvale Shopping Centre</t>
-  </si>
-  <si>
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
-  </si>
-  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
-    <t>Construction Site 1 Warde Street Footscray</t>
-  </si>
-  <si>
-    <t>Construction Site Olea Apartment Caulfield North</t>
-  </si>
-  <si>
-    <t>Costco Wholesale Epping</t>
+    <t>Dandenong Police Station Dandenong</t>
+  </si>
+  <si>
+    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
     <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
-    <t>Disability Residence Life without Barriers Ashwood</t>
+    <t>Direct Freight Express Campbellfield</t>
+  </si>
+  <si>
+    <t>Ermha365 Ltd Doveton</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
-  </si>
-  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
+    <t>Fonterra Manufacturing Workplace Campbellfield</t>
+  </si>
+  <si>
+    <t>General Foods Campbellfield</t>
+  </si>
+  <si>
     <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
   </si>
   <si>
-    <t>Glenroy West Primary School</t>
-  </si>
-  <si>
-    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
-  </si>
-  <si>
-    <t>Gumboots Early Learning Centre South Morang</t>
-  </si>
-  <si>
-    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
-  </si>
-  <si>
-    <t>Health Care Providers Association South Melbourne</t>
-  </si>
-  <si>
-    <t>Hickory Construction Site Chadstone Car Park Malvern East</t>
-  </si>
-  <si>
-    <t>Ibis Kingsgate Hotel Melbourne</t>
-  </si>
-  <si>
-    <t>Ilim College Glenroy Campus Hadfield</t>
+    <t>Greenvale Primary School</t>
   </si>
   <si>
     <t>Ilim Learning Sanctuary Glenroy</t>
@@ -148,51 +121,27 @@
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
-    <t>Inghams Enterprises Thomastown</t>
-  </si>
-  <si>
     <t>KFC Fawkner</t>
   </si>
   <si>
-    <t>Kasr Sweets Coolaroo</t>
-  </si>
-  <si>
     <t>Kids House Early Learning Cheltenham</t>
   </si>
   <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Learning Nest Early Learning Centre Meadow Heights</t>
+    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
     <t>Lineage Logistics Laverton North</t>
   </si>
   <si>
-    <t>Linfox Somerton National Distribution Centre Somerton</t>
-  </si>
-  <si>
     <t>Mecca D.C Warehouse Melbourne Airport</t>
   </si>
   <si>
-    <t>Melbourne Assessment Prison West Melbourne</t>
-  </si>
-  <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Melbourne Truck Repairs Campbellfield</t>
-  </si>
-  <si>
     <t>Melbourne West Police Station Docklands</t>
   </si>
   <si>
-    <t>Mercy Hospital for Women Heidelberg</t>
-  </si>
-  <si>
-    <t>Mernda YMCA Early Learning Centre Mernda</t>
-  </si>
-  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
@@ -217,61 +166,73 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
-    <t>Oscar Romero Catholic Primary School Craigieburn</t>
-  </si>
-  <si>
-    <t>Pacific Meat Thomastown</t>
-  </si>
-  <si>
-    <t>Paisley Park Early Learning Centre Bundoora</t>
-  </si>
-  <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
+    <t>Private Residence Northern Community Services Fawkner</t>
   </si>
   <si>
     <t>Ravenhall Correctional Centre Ravenhall</t>
   </si>
   <si>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
+  </si>
+  <si>
+    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
+  </si>
+  <si>
+    <t>Sharpline Stainless Steel Coburg North</t>
+  </si>
+  <si>
+    <t>St Margaret's Primary School OSHC Maribyrnong</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Sultan Halal Meats &amp; Poultry Campbellfield</t>
+  </si>
+  <si>
     <t>Tek Foods Somerton</t>
   </si>
   <si>
-    <t>The Homestead Child and Family Centre Roxburgh Park</t>
-  </si>
-  <si>
-    <t>The Huntly-Goornong Rail Works</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
     <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
   </si>
   <si>
+    <t>The Royal Talbot Rehabilitation Centre Kew</t>
+  </si>
+  <si>
+    <t>Total Window Concepts Hoppers Crossing</t>
+  </si>
+  <si>
+    <t>Truganina Early Learning Centre Truganina</t>
+  </si>
+  <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
     <t>Wallaby Childcare Wollert</t>
   </si>
   <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Woolworths Greenvale Lakes Roxburgh Park</t>
-  </si>
-  <si>
-    <t>Yara Childcare Centre Truganina</t>
+    <t>Western Health Footscray Hospital Ward 3B Footscray</t>
+  </si>
+  <si>
+    <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -629,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,7 +615,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -662,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -676,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -684,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -695,10 +656,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -706,21 +667,21 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -728,21 +689,21 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -750,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -764,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -772,21 +733,21 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -794,10 +755,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -805,10 +766,10 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -816,10 +777,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -827,21 +788,21 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -849,10 +810,10 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -860,54 +821,54 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -915,21 +876,21 @@
         <v>18</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -937,54 +898,54 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -992,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1003,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1014,10 +975,10 @@
         <v>23</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1025,109 +986,109 @@
         <v>24</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1138,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1146,10 +1107,10 @@
         <v>31</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1157,10 +1118,10 @@
         <v>31</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1168,21 +1129,21 @@
         <v>32</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1193,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1201,21 +1162,21 @@
         <v>34</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1223,10 +1184,10 @@
         <v>35</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1234,10 +1195,10 @@
         <v>36</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1245,10 +1206,10 @@
         <v>37</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1256,10 +1217,10 @@
         <v>37</v>
       </c>
       <c r="B57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1267,494 +1228,494 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B85">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86">
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B93">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B97">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B100">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B101">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1762,10 +1723,10 @@
         <v>64</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1773,10 +1734,10 @@
         <v>65</v>
       </c>
       <c r="B104">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1784,10 +1745,10 @@
         <v>65</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1795,10 +1756,10 @@
         <v>66</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1806,10 +1767,10 @@
         <v>66</v>
       </c>
       <c r="B107">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1817,10 +1778,10 @@
         <v>67</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1828,10 +1789,10 @@
         <v>67</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1839,10 +1800,10 @@
         <v>68</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1850,10 +1811,10 @@
         <v>69</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1861,274 +1822,10 @@
         <v>70</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113">
-        <v>13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-      <c r="B114">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>71</v>
-      </c>
-      <c r="B115">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>72</v>
-      </c>
-      <c r="B116">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117">
-        <v>9</v>
-      </c>
-      <c r="C117" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>73</v>
-      </c>
-      <c r="B118">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-      <c r="B119">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120">
-        <v>20</v>
-      </c>
-      <c r="C120" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>75</v>
-      </c>
-      <c r="B121">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>76</v>
-      </c>
-      <c r="B122">
-        <v>5</v>
-      </c>
-      <c r="C122" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>76</v>
-      </c>
-      <c r="B123">
-        <v>6</v>
-      </c>
-      <c r="C123" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>77</v>
-      </c>
-      <c r="B124">
-        <v>17</v>
-      </c>
-      <c r="C124" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>77</v>
-      </c>
-      <c r="B125">
-        <v>18</v>
-      </c>
-      <c r="C125" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>78</v>
-      </c>
-      <c r="B126">
-        <v>25</v>
-      </c>
-      <c r="C126" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>78</v>
-      </c>
-      <c r="B127">
-        <v>27</v>
-      </c>
-      <c r="C127" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128">
-        <v>8</v>
-      </c>
-      <c r="C128" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>80</v>
-      </c>
-      <c r="B130">
-        <v>11</v>
-      </c>
-      <c r="C130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>80</v>
-      </c>
-      <c r="B131">
-        <v>13</v>
-      </c>
-      <c r="C131" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>81</v>
-      </c>
-      <c r="B132">
-        <v>6</v>
-      </c>
-      <c r="C132" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133">
-        <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134">
-        <v>5</v>
-      </c>
-      <c r="C134" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B135">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>83</v>
-      </c>
-      <c r="B136">
-        <v>8</v>
-      </c>
-      <c r="C136" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="71">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,34 +28,22 @@
     <t>126 Racecourse Road Public Housing Tower Flemington</t>
   </si>
   <si>
-    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
+    <t>95 Napier Street Apartment Complex Fitzroy</t>
   </si>
   <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
-    <t>Al-Taqwa College Truganina</t>
-  </si>
-  <si>
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
-    <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
-  </si>
-  <si>
-    <t>Australian Lamb Colac East</t>
-  </si>
-  <si>
-    <t>CFMEU Melbourne Office</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Cafe Roco Dandenong</t>
-  </si>
-  <si>
-    <t>Cannie Road Construction Site Cannie</t>
+    <t>Budget Car and Truck Rentals Campbellfield</t>
+  </si>
+  <si>
+    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
+  </si>
+  <si>
+    <t>Cardinia Lakes Early Learning Centre Pakenham</t>
   </si>
   <si>
     <t>Caroline Springs Police Station</t>
@@ -64,10 +52,16 @@
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
+    <t>Chemist Warehouse Campbellfield DC</t>
+  </si>
+  <si>
+    <t>Chemist Warehouse Fillo Drive Somerton</t>
+  </si>
+  <si>
     <t>City of Wyndham Community</t>
   </si>
   <si>
-    <t>Coles Broadmeadows Central Shopping Centre</t>
+    <t>Coles Campbellfield Plaza Campbellfield</t>
   </si>
   <si>
     <t>Coles Coburg North Village</t>
@@ -76,123 +70,126 @@
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
+    <t>Coles Roxburgh Village Roxburgh Park</t>
+  </si>
+  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Community Kids Meadow Heights</t>
+    <t>Construction Site Olea Apartment Caulfield North</t>
+  </si>
+  <si>
+    <t>Costco Wholesale Epping</t>
+  </si>
+  <si>
+    <t>Crusader Caravans Epping</t>
   </si>
   <si>
     <t>Dandenong Police Station Dandenong</t>
   </si>
   <si>
-    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
-  </si>
-  <si>
-    <t>Direct Freight Express Cambellfield</t>
-  </si>
-  <si>
     <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
-    <t>Ermha365 Ltd Doveton</t>
+    <t>Don Watson Coldstore Derrimut</t>
+  </si>
+  <si>
+    <t>Don Watson Coldstore Derrimutg</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
+    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
+  </si>
+  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
-    <t>Fonterra Manufacturing Workplace Campbellfield</t>
-  </si>
-  <si>
     <t>General Foods Campbellfield</t>
   </si>
   <si>
-    <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
-  </si>
-  <si>
-    <t>Greenvale Primary School</t>
+    <t>Goodstart Early Learning Altona</t>
+  </si>
+  <si>
+    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
+  </si>
+  <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
+    <t>Hickory Construction Site Chadstone Car Park Malvern East</t>
+  </si>
+  <si>
+    <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
+  </si>
+  <si>
+    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
+  </si>
+  <si>
+    <t>Ibis Kingsgate Hotel Melbourne</t>
+  </si>
+  <si>
+    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
   </si>
   <si>
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
-    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
-  </si>
-  <si>
-    <t>KFC Fawkner</t>
-  </si>
-  <si>
-    <t>Kids House Early Learning Cheltenham</t>
+    <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
-  </si>
-  <si>
     <t>Lineage Logistics Laverton North</t>
   </si>
   <si>
-    <t>Mecca D.C Warehouse Melbourne Airport</t>
-  </si>
-  <si>
-    <t>Melbourne West Police Station Docklands</t>
+    <t>McDonald's Craigieburn North</t>
+  </si>
+  <si>
+    <t>Mill Park Police Station Mill Park</t>
   </si>
   <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
+    <t>National Gallery of Victoria Melbourne</t>
+  </si>
+  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
     <t>Nido Early School Glenroy</t>
   </si>
   <si>
-    <t>Nido Early School Moonee Ponds</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
     <t>Oporto Coolaroo</t>
   </si>
   <si>
+    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
+  </si>
+  <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Private Residence Northern Community Services Fawkner</t>
-  </si>
-  <si>
-    <t>Ravenhall Correctional Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
-  </si>
-  <si>
-    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
-  </si>
-  <si>
-    <t>Sharpline Stainless Steel Coburg North</t>
-  </si>
-  <si>
-    <t>St Margaret's Primary School OSHC Maribyrnong</t>
+    <t>Private Residence Daycare Allumba Way Wollert</t>
+  </si>
+  <si>
+    <t>Ramsay Health Care Warrigal Private Hospital</t>
+  </si>
+  <si>
+    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Sultan Halal Meats &amp; Poultry Campbellfield</t>
-  </si>
-  <si>
     <t>Tek Foods Somerton</t>
   </si>
   <si>
@@ -202,10 +199,7 @@
     <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
   </si>
   <si>
-    <t>The Royal Talbot Rehabilitation Centre Kew</t>
-  </si>
-  <si>
-    <t>Total Window Concepts Hoppers Crossing</t>
+    <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
     <t>Truganina Early Learning Centre Truganina</t>
@@ -217,22 +211,22 @@
     <t>Wallaby Childcare Wollert</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Footscray Hospital Ward 3B Footscray</t>
   </si>
   <si>
-    <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
+    <t>Yara Childcare Centre Truganina</t>
+  </si>
+  <si>
+    <t>Yarra Childcare Centre Truganina</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -590,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,18 +609,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -634,10 +628,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -645,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -656,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -667,65 +661,65 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -733,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -744,21 +738,21 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -766,21 +760,21 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -788,10 +782,10 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -799,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -810,10 +804,10 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -821,10 +815,10 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -832,10 +826,10 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -843,10 +837,10 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -854,10 +848,10 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -865,21 +859,21 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -887,10 +881,10 @@
         <v>18</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -898,10 +892,10 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -909,10 +903,10 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -920,10 +914,10 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -931,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -942,153 +936,153 @@
         <v>21</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
         <v>23</v>
       </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1096,10 +1090,10 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1107,10 +1101,10 @@
         <v>31</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1118,10 +1112,10 @@
         <v>31</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1129,21 +1123,21 @@
         <v>32</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1151,10 +1145,10 @@
         <v>33</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1162,32 +1156,32 @@
         <v>34</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1195,10 +1189,10 @@
         <v>36</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1206,10 +1200,10 @@
         <v>37</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1217,10 +1211,10 @@
         <v>37</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1228,604 +1222,527 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B72">
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B74">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B85">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B91">
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B97">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B98">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B99">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B100">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B104">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>66</v>
-      </c>
-      <c r="B106">
-        <v>13</v>
-      </c>
-      <c r="C106" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>66</v>
-      </c>
-      <c r="B107">
-        <v>17</v>
-      </c>
-      <c r="C107" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-      <c r="B108">
-        <v>11</v>
-      </c>
-      <c r="C108" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B109">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-      <c r="B110">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
-      <c r="B111">
-        <v>10</v>
-      </c>
-      <c r="C111" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>70</v>
-      </c>
-      <c r="B112">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,102 +28,72 @@
     <t>126 Racecourse Road Public Housing Tower Flemington</t>
   </si>
   <si>
-    <t>95 Napier Street Apartment Complex Fitzroy</t>
-  </si>
-  <si>
-    <t>Al Haj Halal Meats Glenroy</t>
-  </si>
-  <si>
-    <t>Amiga Montessori Craigieburn</t>
-  </si>
-  <si>
-    <t>Budget Car and Truck Rentals Campbellfield</t>
+    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
+  </si>
+  <si>
+    <t>Baker Bleu Caulfield North</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs</t>
   </si>
   <si>
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
-    <t>Cardinia Lakes Early Learning Centre Pakenham</t>
-  </si>
-  <si>
-    <t>Caroline Springs Police Station</t>
-  </si>
-  <si>
-    <t>Cedars Medical Clinic Coburg</t>
-  </si>
-  <si>
-    <t>Chemist Warehouse Campbellfield DC</t>
+    <t>Carlton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Wyndham Community</t>
-  </si>
-  <si>
-    <t>Coles Campbellfield Plaza Campbellfield</t>
-  </si>
-  <si>
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
-  </si>
-  <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
-  </si>
-  <si>
-    <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
-  </si>
-  <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Crusader Caravans Epping</t>
-  </si>
-  <si>
     <t>Dandenong Police Station Dandenong</t>
   </si>
   <si>
+    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
+  </si>
+  <si>
     <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimut</t>
-  </si>
-  <si>
-    <t>Don Watson Coldstore Derrimutg</t>
+    <t>Ermha365 Ltd Doveton</t>
+  </si>
+  <si>
+    <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
-  </si>
-  <si>
-    <t>Fitzroy Community School Fitzroy North</t>
+    <t>Fitzroy St Precinct St Kilda</t>
   </si>
   <si>
     <t>General Foods Campbellfield</t>
   </si>
   <si>
-    <t>Goodstart Early Learning Altona</t>
-  </si>
-  <si>
-    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
+    <t>Green Leaves Early Leaning Cairnlea</t>
+  </si>
+  <si>
+    <t>Green Leaves Early Learning Cairnlea</t>
+  </si>
+  <si>
+    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
+  </si>
+  <si>
+    <t>HEI Schools Emerald Early Learning Centre Emerald</t>
   </si>
   <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
-    <t>Hickory Construction Site Chadstone Car Park Malvern East</t>
-  </si>
-  <si>
-    <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
-  </si>
-  <si>
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
@@ -133,33 +103,30 @@
     <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
   </si>
   <si>
-    <t>Ilim Learning Sanctuary Glenroy</t>
-  </si>
-  <si>
-    <t>Kasr Sweets Coolaroo</t>
-  </si>
-  <si>
-    <t>Kool Kidz Childcare Narre Warren</t>
-  </si>
-  <si>
-    <t>Lineage Logistics Laverton North</t>
-  </si>
-  <si>
-    <t>McDonald's Craigieburn North</t>
-  </si>
-  <si>
-    <t>Mill Park Police Station Mill Park</t>
-  </si>
-  <si>
-    <t>MyCentre Childcare Broadmeadows</t>
+    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
+  </si>
+  <si>
+    <t>Linfox Somerton National Distribution Centre Somerton</t>
+  </si>
+  <si>
+    <t>Mecca D.C Warehouse Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne</t>
+  </si>
+  <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
+    <t>Melbourne West Police Station Docklands</t>
   </si>
   <si>
     <t>National Gallery of Victoria Melbourne</t>
   </si>
   <si>
-    <t>Nido Early School Ascot Vale</t>
-  </si>
-  <si>
     <t>Nido Early School Glenroy</t>
   </si>
   <si>
@@ -172,19 +139,13 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
-    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
-  </si>
-  <si>
-    <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
-  </si>
-  <si>
-    <t>Private Residence Daycare Allumba Way Wollert</t>
-  </si>
-  <si>
     <t>Ramsay Health Care Warrigal Private Hospital</t>
   </si>
   <si>
-    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
+    <t>Ravenhall Correctional Centre Ravenhall</t>
+  </si>
+  <si>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
@@ -196,37 +157,46 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
+    <t>The Royal Melbourne Hospital Parkville</t>
+  </si>
+  <si>
+    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
   </si>
   <si>
     <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
+    <t>The Royal Talbot Rehabilitation Centre Kew</t>
+  </si>
+  <si>
+    <t>ThorwestenCabinets Pakenham</t>
+  </si>
+  <si>
     <t>Truganina Early Learning Centre Truganina</t>
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
-    <t>Wallaby Childcare Wollert</t>
+    <t>Visy Recycling Springvale</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Footscray Hospital Ward 3B Footscray</t>
-  </si>
-  <si>
-    <t>Yara Childcare Centre Truganina</t>
-  </si>
-  <si>
-    <t>Yarra Childcare Centre Truganina</t>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -584,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,10 +576,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -620,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -628,21 +598,21 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -650,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -661,241 +631,241 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -903,10 +873,10 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -914,10 +884,10 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -925,21 +895,21 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -947,10 +917,10 @@
         <v>21</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -958,21 +928,21 @@
         <v>22</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -980,186 +950,186 @@
         <v>23</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47">
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1170,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1178,10 +1148,10 @@
         <v>36</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1189,10 +1159,10 @@
         <v>36</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1200,10 +1170,10 @@
         <v>37</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1211,10 +1181,10 @@
         <v>37</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1222,208 +1192,208 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1431,21 +1401,21 @@
         <v>49</v>
       </c>
       <c r="B77">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1453,21 +1423,21 @@
         <v>50</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1475,21 +1445,21 @@
         <v>51</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1497,252 +1467,120 @@
         <v>52</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B93">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94">
-        <v>22</v>
-      </c>
-      <c r="C94" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95">
-        <v>21</v>
-      </c>
-      <c r="C95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>62</v>
-      </c>
-      <c r="B96">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97">
-        <v>6</v>
-      </c>
-      <c r="C97" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>63</v>
-      </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>63</v>
-      </c>
-      <c r="B99">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>64</v>
-      </c>
-      <c r="B100">
-        <v>17</v>
-      </c>
-      <c r="C100" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101">
-        <v>18</v>
-      </c>
-      <c r="C101" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>66</v>
-      </c>
-      <c r="B103">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B104">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,13 +25,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>126 Racecourse Road Public Housing Tower Flemington</t>
-  </si>
-  <si>
-    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
-  </si>
-  <si>
-    <t>Baker Bleu Caulfield North</t>
+    <t>139 Highett St Apartment Complex Richmond</t>
+  </si>
+  <si>
+    <t>3175 The Bays Aged Care Facility Hastings</t>
+  </si>
+  <si>
+    <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
+  </si>
+  <si>
+    <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
+  </si>
+  <si>
+    <t>Australian Lamb Colac East</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
@@ -43,13 +49,13 @@
     <t>Carlton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
-    <t>Chemist Warehouse Fillo Drive Somerton</t>
-  </si>
-  <si>
-    <t>Coles Coburg North Village</t>
-  </si>
-  <si>
-    <t>Construction Site Olea Apartment Caulfield North</t>
+    <t>Carton Finishing Pty. Ltd. Campbellfield</t>
+  </si>
+  <si>
+    <t>Coles Roxburgh Village Roxburgh Park</t>
+  </si>
+  <si>
+    <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
@@ -58,27 +64,18 @@
     <t>Dandenong Police Station Dandenong</t>
   </si>
   <si>
-    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
-  </si>
-  <si>
-    <t>Direct Freight Express Campbellfield</t>
-  </si>
-  <si>
-    <t>Ermha365 Ltd Doveton</t>
-  </si>
-  <si>
-    <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
-  </si>
-  <si>
-    <t>FedEx Station Melbourne Airport</t>
+    <t>Don Watson Coldstore Derrimut</t>
+  </si>
+  <si>
+    <t>Don Watson Coldstore Derrimutg</t>
+  </si>
+  <si>
+    <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
     <t>Fitzroy St Precinct St Kilda</t>
   </si>
   <si>
-    <t>General Foods Campbellfield</t>
-  </si>
-  <si>
     <t>Green Leaves Early Leaning Cairnlea</t>
   </si>
   <si>
@@ -88,109 +85,58 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>HEI Schools Emerald Early Learning Centre Emerald</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
-  </si>
-  <si>
     <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
-    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
-  </si>
-  <si>
-    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
-  </si>
-  <si>
-    <t>Linfox Somerton National Distribution Centre Somerton</t>
-  </si>
-  <si>
-    <t>Mecca D.C Warehouse Melbourne Airport</t>
-  </si>
-  <si>
-    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
-  </si>
-  <si>
-    <t>Melbourne Assessment Prison West Melbourne</t>
-  </si>
-  <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Melbourne West Police Station Docklands</t>
-  </si>
-  <si>
-    <t>National Gallery of Victoria Melbourne</t>
-  </si>
-  <si>
-    <t>Nido Early School Glenroy</t>
+    <t>Kippers Seafood Werribee</t>
+  </si>
+  <si>
+    <t>Kool Kidz Childcare Narre Warren</t>
+  </si>
+  <si>
+    <t>Lantmannen Unibake Australia Mordialloc</t>
+  </si>
+  <si>
+    <t>Lineage Logistics Laverton North</t>
+  </si>
+  <si>
+    <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
-    <t>Oporto Coolaroo</t>
-  </si>
-  <si>
-    <t>Ramsay Health Care Warrigal Private Hospital</t>
-  </si>
-  <si>
-    <t>Ravenhall Correctional Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Tek Foods Somerton</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Melbourne Hospital Parkville</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
-  </si>
-  <si>
     <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
     <t>The Royal Talbot Rehabilitation Centre Kew</t>
   </si>
   <si>
-    <t>ThorwestenCabinets Pakenham</t>
-  </si>
-  <si>
-    <t>Truganina Early Learning Centre Truganina</t>
-  </si>
-  <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
+    <t>Yara Childcare Centre Truganina</t>
+  </si>
+  <si>
+    <t>Yarra Childcare Centre Truganina</t>
   </si>
   <si>
     <t>new</t>
@@ -554,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,505 +522,505 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1082,21 +1028,21 @@
         <v>33</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1104,21 +1050,21 @@
         <v>34</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1126,21 +1072,21 @@
         <v>35</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1148,21 +1094,21 @@
         <v>36</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1170,21 +1116,21 @@
         <v>37</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1192,395 +1138,32 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73">
-        <v>16</v>
-      </c>
-      <c r="C73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74">
-        <v>18</v>
-      </c>
-      <c r="C74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77">
-        <v>20</v>
-      </c>
-      <c r="C77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78">
-        <v>21</v>
-      </c>
-      <c r="C78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81">
-        <v>11</v>
-      </c>
-      <c r="C81" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82">
-        <v>14</v>
-      </c>
-      <c r="C82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>53</v>
-      </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86">
-        <v>22</v>
-      </c>
-      <c r="C86" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87">
-        <v>13</v>
-      </c>
-      <c r="C87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>55</v>
-      </c>
-      <c r="B88">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>57</v>
-      </c>
-      <c r="B92">
-        <v>12</v>
-      </c>
-      <c r="C92" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,19 +25,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond</t>
+    <t>126 Racecourse Road Public Housing Tower Flemington</t>
   </si>
   <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
-  </si>
-  <si>
-    <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
-  </si>
-  <si>
-    <t>Australian Lamb Colac East</t>
+    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
+  </si>
+  <si>
+    <t>Al Haj Halal Meats Glenroy</t>
+  </si>
+  <si>
+    <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
@@ -46,63 +46,105 @@
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
-    <t>Carlton Finishing Pty. Ltd. Campbellfield</t>
-  </si>
-  <si>
-    <t>Carton Finishing Pty. Ltd. Campbellfield</t>
-  </si>
-  <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
+    <t>Caroline Springs Police Station</t>
+  </si>
+  <si>
+    <t>Chemist Warehouse Campbellfield DC</t>
+  </si>
+  <si>
+    <t>Chemist Warehouse Fillo Drive Somerton</t>
+  </si>
+  <si>
+    <t>City of Wyndham Community</t>
+  </si>
+  <si>
+    <t>Coles Campbellfield Plaza Campbellfield</t>
+  </si>
+  <si>
+    <t>Coles Coburg North Village</t>
+  </si>
+  <si>
+    <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
+    <t>Construction Site 1 Warde Street Footscray</t>
+  </si>
+  <si>
+    <t>Construction Site Olea Apartment Caulfield North</t>
+  </si>
+  <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Dandenong Police Station Dandenong</t>
+    <t>Crusader Caravans Epping</t>
+  </si>
+  <si>
+    <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
     <t>Don Watson Coldstore Derrimut</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimutg</t>
-  </si>
-  <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
-    <t>Fitzroy St Precinct St Kilda</t>
-  </si>
-  <si>
-    <t>Green Leaves Early Leaning Cairnlea</t>
+    <t>FedEx Station Melbourne Airport</t>
+  </si>
+  <si>
+    <t>General Foods Campbellfield</t>
+  </si>
+  <si>
+    <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
     <t>Green Leaves Early Learning Cairnlea</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
+    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
+  </si>
+  <si>
+    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
     <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
+    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
+  </si>
+  <si>
     <t>Kippers Seafood Werribee</t>
   </si>
   <si>
-    <t>Kool Kidz Childcare Narre Warren</t>
-  </si>
-  <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
-    <t>Lineage Logistics Laverton North</t>
+    <t>Linfox Somerton National Distribution Centre Somerton</t>
+  </si>
+  <si>
+    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
+    <t>Melbourne West Police Station Docklands</t>
+  </si>
+  <si>
+    <t>Mill Park Police Station Mill Park</t>
   </si>
   <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
+    <t>National Gallery of Victoria Melbourne</t>
+  </si>
+  <si>
+    <t>Nido Early School Ascot Vale</t>
+  </si>
+  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
@@ -112,37 +154,61 @@
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
+    <t>Oporto Coolaroo</t>
+  </si>
+  <si>
+    <t>Oscar Romero Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
+    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
+  </si>
+  <si>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
+  </si>
+  <si>
+    <t>Sharpline Stainless Steel Coburg North</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Tek Foods Somerton</t>
+  </si>
+  <si>
+    <t>The Huntly-Goornong Rail Works</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
+  </si>
+  <si>
     <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
-    <t>The Royal Talbot Rehabilitation Centre Kew</t>
+    <t>ThorwestenCabinets Pakenham</t>
+  </si>
+  <si>
+    <t>Truganina Early Learning Centre Truganina</t>
   </si>
   <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
     <t>Yara Childcare Centre Truganina</t>
   </si>
   <si>
-    <t>Yarra Childcare Centre Truganina</t>
+    <t>old</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -500,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,648 +588,1143 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
         <v>18</v>
       </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>40</v>
       </c>
-      <c r="B60">
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
-        <v>42</v>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="59">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,16 +28,25 @@
     <t>126 Racecourse Road Public Housing Tower Flemington</t>
   </si>
   <si>
+    <t>139 Highett St Apartment Complex Richmond</t>
+  </si>
+  <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>Al Haj Halal Meats Glenroy</t>
-  </si>
-  <si>
-    <t>Al-Taqwa College Truganina</t>
+    <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
+  </si>
+  <si>
+    <t>Australia Post Distribution Centre Sunshine West</t>
+  </si>
+  <si>
+    <t>Australian Lamb Colac East</t>
+  </si>
+  <si>
+    <t>CFMEU Melbourne Office</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
@@ -46,33 +55,24 @@
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
+    <t>Cardinia Lakes Early Learning Centre Pakenham</t>
+  </si>
+  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
-    <t>Chemist Warehouse Campbellfield DC</t>
-  </si>
-  <si>
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Wyndham Community</t>
-  </si>
-  <si>
-    <t>Coles Campbellfield Plaza Campbellfield</t>
-  </si>
-  <si>
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
+    <t>Coles Roxburgh Village Roxburgh Park</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Construction Site 1 Warde Street Footscray</t>
-  </si>
-  <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
@@ -82,27 +82,30 @@
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellfield</t>
-  </si>
-  <si>
-    <t>Don Watson Coldstore Derrimut</t>
-  </si>
-  <si>
-    <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
+    <t>Disability Residence Life without Barriers Ashwood</t>
+  </si>
+  <si>
+    <t>Embracia Aged Care Reservoir Outbreak</t>
+  </si>
+  <si>
+    <t>Ermha365 Residential Disability Care Services Doveton</t>
+  </si>
+  <si>
+    <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
+    <t>Fonterra Manufacturing Workplace Campbellfield</t>
+  </si>
+  <si>
     <t>General Foods Campbellfield</t>
   </si>
   <si>
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Cairnlea</t>
-  </si>
-  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
@@ -115,33 +118,18 @@
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
-    <t>Kippers Seafood Werribee</t>
+    <t>Inghams Enterprises Thomastown</t>
   </si>
   <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
-    <t>Linfox Somerton National Distribution Centre Somerton</t>
-  </si>
-  <si>
-    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
-  </si>
-  <si>
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
   </si>
   <si>
-    <t>Melbourne West Police Station Docklands</t>
-  </si>
-  <si>
-    <t>Mill Park Police Station Mill Park</t>
-  </si>
-  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
-    <t>National Gallery of Victoria Melbourne</t>
-  </si>
-  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -157,27 +145,18 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
-    <t>Oscar Romero Catholic Primary School Craigieburn</t>
-  </si>
-  <si>
     <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
     <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
-    <t>Sharpline Stainless Steel Coburg North</t>
+    <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Tek Foods Somerton</t>
-  </si>
-  <si>
-    <t>The Huntly-Goornong Rail Works</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
@@ -187,28 +166,31 @@
     <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
+    <t>The Royal Talbot Rehabilitation Centre Kew</t>
+  </si>
+  <si>
     <t>ThorwestenCabinets Pakenham</t>
   </si>
   <si>
-    <t>Truganina Early Learning Centre Truganina</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
+    <t>Wallaby Childcare Wollert</t>
+  </si>
+  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Yara Childcare Centre Truganina</t>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -566,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -602,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -610,10 +592,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -621,10 +603,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -632,10 +614,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -643,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -657,18 +639,18 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -676,21 +658,21 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -698,21 +680,21 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -720,21 +702,21 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -742,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -753,21 +735,21 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -778,238 +760,238 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1020,18 +1002,18 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1039,76 +1021,76 @@
         <v>27</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1116,10 +1098,10 @@
         <v>31</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1127,10 +1109,10 @@
         <v>32</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1138,10 +1120,10 @@
         <v>32</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1152,18 +1134,18 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1171,21 +1153,21 @@
         <v>34</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1193,21 +1175,21 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1215,21 +1197,21 @@
         <v>36</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1237,21 +1219,21 @@
         <v>37</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1259,21 +1241,21 @@
         <v>38</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1281,21 +1263,21 @@
         <v>39</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1303,54 +1285,54 @@
         <v>40</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1358,10 +1340,10 @@
         <v>43</v>
       </c>
       <c r="B72">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1369,10 +1351,10 @@
         <v>44</v>
       </c>
       <c r="B73">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1380,10 +1362,10 @@
         <v>44</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1391,21 +1373,21 @@
         <v>45</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1413,21 +1395,21 @@
         <v>46</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1435,10 +1417,10 @@
         <v>47</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1446,10 +1428,10 @@
         <v>48</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1457,10 +1439,10 @@
         <v>48</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1468,10 +1450,10 @@
         <v>49</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1479,10 +1461,10 @@
         <v>49</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1490,21 +1472,21 @@
         <v>50</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1512,219 +1494,131 @@
         <v>51</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B90">
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99">
-        <v>23</v>
-      </c>
-      <c r="C99" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100">
-        <v>28</v>
-      </c>
-      <c r="C100" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>60</v>
-      </c>
-      <c r="B102">
-        <v>15</v>
-      </c>
-      <c r="C102" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>61</v>
-      </c>
-      <c r="B103">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,15 +28,15 @@
     <t>126 Racecourse Road Public Housing Tower Flemington</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond</t>
-  </si>
-  <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
+    <t>Al-Taqwa College Truganina</t>
+  </si>
+  <si>
     <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
   </si>
   <si>
@@ -46,28 +46,31 @@
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
-    <t>CFMEU Melbourne Office</t>
+    <t>Baker Bleu Caulfield North</t>
+  </si>
+  <si>
+    <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
+    <t>Cafe Roco Dandenong</t>
+  </si>
+  <si>
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
     <t>Cardinia Lakes Early Learning Centre Pakenham</t>
   </si>
   <si>
-    <t>Caroline Springs Police Station</t>
-  </si>
-  <si>
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
+    <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
@@ -76,40 +79,34 @@
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
-    <t>Costco Wholesale Epping</t>
-  </si>
-  <si>
-    <t>Crusader Caravans Epping</t>
-  </si>
-  <si>
-    <t>Disability Residence Life without Barriers Ashwood</t>
+    <t>Dandenong Police Station Dandenong</t>
+  </si>
+  <si>
+    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
-    <t>Ermha365 Residential Disability Care Services Doveton</t>
-  </si>
-  <si>
-    <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
-  </si>
-  <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
-    <t>General Foods Campbellfield</t>
+    <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
   </si>
   <si>
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
-    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
-  </si>
-  <si>
-    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
+    <t>Greenvale Primary School</t>
+  </si>
+  <si>
+    <t>HEI Schools Emerald Early Learning Centre Emerald</t>
+  </si>
+  <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
     <t>Ibis Kingsgate Hotel Melbourne</t>
@@ -121,12 +118,30 @@
     <t>Inghams Enterprises Thomastown</t>
   </si>
   <si>
+    <t>Kool Kidz Childcare Narre Warren</t>
+  </si>
+  <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
+    <t>Linfox Somerton National Distribution Centre Somerton</t>
+  </si>
+  <si>
+    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne</t>
+  </si>
+  <si>
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
   </si>
   <si>
+    <t>Melbourne West Police Station Docklands</t>
+  </si>
+  <si>
+    <t>Mill Park Police Station Mill Park</t>
+  </si>
+  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
@@ -142,24 +157,27 @@
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
-    <t>Oporto Coolaroo</t>
-  </si>
-  <si>
-    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
+    <t>Pacific Meat Thomastown</t>
+  </si>
+  <si>
+    <t>Private Residence Daycare Allumba Way Wollert</t>
+  </si>
+  <si>
+    <t>Ravenhall Correctional Centre Ravenhall</t>
   </si>
   <si>
     <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
-    <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>The Royal Melbourne Hospital Parkville</t>
+  </si>
+  <si>
     <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
   </si>
   <si>
@@ -172,25 +190,25 @@
     <t>ThorwestenCabinets Pakenham</t>
   </si>
   <si>
+    <t>Truganina Early Learning Centre Truganina</t>
+  </si>
+  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
-    <t>Wallaby Childcare Wollert</t>
-  </si>
-  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
+    <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -548,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,18 +591,18 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -592,1033 +610,824 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B63">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B64">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B65">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B66">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B68">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B70">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79">
-        <v>17</v>
-      </c>
-      <c r="C79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82">
-        <v>9</v>
-      </c>
-      <c r="C82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84">
-        <v>11</v>
-      </c>
-      <c r="C84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85">
-        <v>12</v>
-      </c>
-      <c r="C85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88">
-        <v>28</v>
-      </c>
-      <c r="C88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B89">
-        <v>29</v>
-      </c>
-      <c r="C89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>53</v>
-      </c>
-      <c r="B90">
-        <v>17</v>
-      </c>
-      <c r="C90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91">
-        <v>18</v>
-      </c>
-      <c r="C91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92">
-        <v>14</v>
-      </c>
-      <c r="C92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93">
-        <v>15</v>
-      </c>
-      <c r="C93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95">
-        <v>8</v>
-      </c>
-      <c r="C95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96">
-        <v>14</v>
-      </c>
-      <c r="C96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97">
-        <v>15</v>
-      </c>
-      <c r="C97" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,64 +25,31 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>126 Racecourse Road Public Housing Tower Flemington</t>
-  </si>
-  <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
-  </si>
-  <si>
-    <t>Al-Taqwa College Truganina</t>
-  </si>
-  <si>
-    <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
-  </si>
-  <si>
-    <t>Australia Post Distribution Centre Sunshine West</t>
+    <t>3563 Embracia Aged Care Reservoir</t>
+  </si>
+  <si>
+    <t>Apartment Complex Fawkner</t>
   </si>
   <si>
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
-    <t>Baker Bleu Caulfield North</t>
-  </si>
-  <si>
-    <t>Baxter Foods Australia Campbellfield</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Cafe Roco Dandenong</t>
-  </si>
-  <si>
-    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
-  </si>
-  <si>
-    <t>Cardinia Lakes Early Learning Centre Pakenham</t>
-  </si>
-  <si>
-    <t>Chemist Warehouse Fillo Drive Somerton</t>
-  </si>
-  <si>
-    <t>Coles Coburg North Village</t>
-  </si>
-  <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
+    <t>Bread Solutions Braeside</t>
+  </si>
+  <si>
+    <t>Cedar Meats Australia Brooklyn</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Construction Site Olea Apartment Caulfield North</t>
-  </si>
-  <si>
-    <t>Dandenong Police Station Dandenong</t>
-  </si>
-  <si>
-    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
+    <t>Costco Wholesale Epping</t>
+  </si>
+  <si>
+    <t>Crusader Caravans Epping</t>
   </si>
   <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
@@ -91,31 +58,16 @@
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Fonterra Manufacturing Workplace Campbellfield</t>
-  </si>
-  <si>
-    <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
-  </si>
-  <si>
-    <t>Goodstart Early Learning Altona</t>
-  </si>
-  <si>
-    <t>Greenvale Primary School</t>
-  </si>
-  <si>
-    <t>HEI Schools Emerald Early Learning Centre Emerald</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Ibis Kingsgate Hotel Melbourne</t>
-  </si>
-  <si>
-    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Thomastown</t>
+    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
+  </si>
+  <si>
+    <t>General Foods Campbellfield</t>
+  </si>
+  <si>
+    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
+  </si>
+  <si>
+    <t>Guardian Childcare Caulfield</t>
   </si>
   <si>
     <t>Kool Kidz Childcare Narre Warren</t>
@@ -124,49 +76,28 @@
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
-    <t>Linfox Somerton National Distribution Centre Somerton</t>
-  </si>
-  <si>
-    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
-  </si>
-  <si>
     <t>Melbourne Assessment Prison West Melbourne</t>
   </si>
   <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Melbourne West Police Station Docklands</t>
-  </si>
-  <si>
-    <t>Mill Park Police Station Mill Park</t>
-  </si>
-  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
+    <t>Nido Early School Glenroy</t>
+  </si>
+  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>OnQ Plumbing and Excavations Craigieburn</t>
-  </si>
-  <si>
-    <t>Pacific Meat Thomastown</t>
-  </si>
-  <si>
-    <t>Private Residence Daycare Allumba Way Wollert</t>
-  </si>
-  <si>
-    <t>Ravenhall Correctional Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
+    <t>Social Gathering Warrnambool 28 September</t>
+  </si>
+  <si>
+    <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
@@ -175,34 +106,22 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Melbourne Hospital Parkville</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
+    <t>The Royal Talbot Rehabilitation Centre</t>
   </si>
   <si>
     <t>The Royal Talbot Rehabilitation Centre Kew</t>
   </si>
   <si>
-    <t>ThorwestenCabinets Pakenham</t>
-  </si>
-  <si>
-    <t>Truganina Early Learning Centre Truganina</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
+    <t>Wallaby Childcare Wollert</t>
+  </si>
+  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
     <t>old</t>
@@ -566,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,21 +507,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -610,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -621,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -632,43 +551,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -676,758 +595,483 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41">
         <v>35</v>
       </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B50">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54">
-        <v>22</v>
-      </c>
-      <c r="C54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61">
-        <v>20</v>
-      </c>
-      <c r="C61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63">
-        <v>17</v>
-      </c>
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72">
-        <v>29</v>
-      </c>
-      <c r="C72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73">
-        <v>30</v>
-      </c>
-      <c r="C73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75">
-        <v>19</v>
-      </c>
-      <c r="C75" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78">
-        <v>6</v>
-      </c>
-      <c r="C78" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,12 +25,24 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>126 Racecourse Road Public Housing Tower Flemington</t>
+  </si>
+  <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
     <t>3563 Embracia Aged Care Reservoir</t>
   </si>
   <si>
+    <t>3612 BlueCross Glengowrie Outbreak</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
+  </si>
+  <si>
     <t>Apartment Complex Fawkner</t>
   </si>
   <si>
@@ -40,42 +52,48 @@
     <t>Bread Solutions Braeside</t>
   </si>
   <si>
+    <t>Bread Solutions Braeside Outbreak</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs</t>
+  </si>
+  <si>
+    <t>Carton Finishing Pty. Ltd. Campbellfield</t>
+  </si>
+  <si>
     <t>Cedar Meats Australia Brooklyn</t>
   </si>
   <si>
+    <t>Cedar Meats Australia Brooklyn Outbreak</t>
+  </si>
+  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Crusader Caravans Epping</t>
-  </si>
-  <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
+    <t>Ermha365 Residential Disability Care Services Doveton</t>
+  </si>
+  <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
-  </si>
-  <si>
-    <t>General Foods Campbellfield</t>
-  </si>
-  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
     <t>Guardian Childcare Caulfield</t>
   </si>
   <si>
+    <t>Guardian Childcare Caulfield Outbreak</t>
+  </si>
+  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Lantmannen Unibake Australia Mordialloc</t>
-  </si>
-  <si>
     <t>Melbourne Assessment Prison West Melbourne</t>
   </si>
   <si>
@@ -94,6 +112,15 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
+    <t>Oceania Meat Processors Laverton North Outbreak</t>
+  </si>
+  <si>
+    <t>Pick It Up Fitness Mulgrave Outbreak</t>
+  </si>
+  <si>
+    <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
+  </si>
+  <si>
     <t>Social Gathering Warrnambool 28 September</t>
   </si>
   <si>
@@ -103,31 +130,34 @@
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Target Distribution Centre Truganina Outbreak</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West Outbreak</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
     <t>The Royal Talbot Rehabilitation Centre</t>
   </si>
   <si>
-    <t>The Royal Talbot Rehabilitation Centre Kew</t>
-  </si>
-  <si>
-    <t>Visy Recycling Springvale</t>
-  </si>
-  <si>
     <t>Wallaby Childcare Wollert</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
+    <t>Western Health Footscray Hospital Emergency Department</t>
+  </si>
+  <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -485,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,21 +537,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,10 +559,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,10 +570,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,527 +581,604 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B47">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,82 +25,46 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>126 Racecourse Road Public Housing Tower Flemington</t>
-  </si>
-  <si>
-    <t>3175 The Bays Aged Care Facility Hastings</t>
-  </si>
-  <si>
-    <t>3563 Embracia Aged Care Reservoir</t>
+    <t>139 Highett St Apartment Complex Richmond</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Age Care Noble Park Outbreak</t>
   </si>
   <si>
     <t>3612 BlueCross Glengowrie Outbreak</t>
   </si>
   <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
-  </si>
-  <si>
     <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
   </si>
   <si>
-    <t>Apartment Complex Fawkner</t>
-  </si>
-  <si>
-    <t>Australian Lamb Colac East</t>
-  </si>
-  <si>
-    <t>Bread Solutions Braeside</t>
-  </si>
-  <si>
     <t>Bread Solutions Braeside Outbreak</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
+    <t>CS Square Caroline Springs Outbreak</t>
+  </si>
+  <si>
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
-    <t>Cedar Meats Australia Brooklyn</t>
-  </si>
-  <si>
-    <t>Cedar Meats Australia Brooklyn Outbreak</t>
+    <t>Child's Play Early Learning Centre Tarneit</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Costco Wholesale Epping</t>
-  </si>
-  <si>
-    <t>Embracia Aged Care Reservoir Outbreak</t>
-  </si>
-  <si>
-    <t>Ermha365 Residential Disability Care Services Doveton</t>
-  </si>
-  <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Guardian Childcare Caulfield</t>
-  </si>
-  <si>
     <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
-    <t>Kool Kidz Childcare Narre Warren</t>
-  </si>
-  <si>
-    <t>Melbourne Assessment Prison West Melbourne</t>
-  </si>
-  <si>
-    <t>MyCentre Childcare Broadmeadows</t>
-  </si>
-  <si>
-    <t>Nido Early School Ascot Vale</t>
+    <t>Inghams Enterprise Somerville Outbreak</t>
   </si>
   <si>
     <t>Nido Early School Glenroy</t>
@@ -115,49 +79,34 @@
     <t>Oceania Meat Processors Laverton North Outbreak</t>
   </si>
   <si>
-    <t>Pick It Up Fitness Mulgrave Outbreak</t>
-  </si>
-  <si>
-    <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
-  </si>
-  <si>
-    <t>Social Gathering Warrnambool 28 September</t>
-  </si>
-  <si>
-    <t>St Margaret's Primary School OSHC Maribyrnong</t>
+    <t>Robin Hood Inn Drouin West Outbreak</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Target Distribution Centre Truganina Outbreak</t>
-  </si>
-  <si>
     <t>The Robin Hood Inn Drouin West Outbreak</t>
   </si>
   <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Talbot Rehabilitation Centre</t>
-  </si>
-  <si>
-    <t>Wallaby Childcare Wollert</t>
+    <t>The Toolshed Bar Private Event Noojee</t>
+  </si>
+  <si>
+    <t>Turosi Breakwater</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -515,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,18 +489,18 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -559,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,615 +519,406 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49">
-        <v>37</v>
-      </c>
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50">
-        <v>21</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53">
-        <v>16</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55">
-        <v>16</v>
-      </c>
-      <c r="C55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56">
-        <v>20</v>
-      </c>
-      <c r="C56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60">
-        <v>18</v>
-      </c>
-      <c r="C60" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond</t>
+    <t>126 Racecourse Road Public Housing Tower Flemington</t>
+  </si>
+  <si>
+    <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
     <t>3600 Belvedere Age Care Noble Park Outbreak</t>
@@ -34,39 +37,39 @@
     <t>3612 BlueCross Glengowrie Outbreak</t>
   </si>
   <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
-  </si>
-  <si>
-    <t>Bread Solutions Braeside Outbreak</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs</t>
+    <t>Australian Lamb Colac East</t>
   </si>
   <si>
     <t>CS Square Caroline Springs Outbreak</t>
   </si>
   <si>
-    <t>Carton Finishing Pty. Ltd. Campbellfield</t>
-  </si>
-  <si>
     <t>Child's Play Early Learning Centre Tarneit</t>
   </si>
   <si>
-    <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
+    <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield Outbreak</t>
+    <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
     <t>Inghams Enterprise Somerville Outbreak</t>
   </si>
   <si>
+    <t>Kool Kidz Childcare Narre Warren</t>
+  </si>
+  <si>
+    <t>Lantmannen Unibake Australia Mordialloc</t>
+  </si>
+  <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
+  </si>
+  <si>
+    <t>Nido Early School Ascot Vale</t>
+  </si>
+  <si>
     <t>Nido Early School Glenroy</t>
   </si>
   <si>
@@ -76,31 +79,25 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>Oceania Meat Processors Laverton North Outbreak</t>
-  </si>
-  <si>
     <t>Robin Hood Inn Drouin West Outbreak</t>
   </si>
   <si>
+    <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>The Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+    <t>Target Distribution Centre Truganina Outbreak</t>
   </si>
   <si>
     <t>The Toolshed Bar Private Event Noojee</t>
   </si>
   <si>
-    <t>Turosi Breakwater</t>
+    <t>Visy Recycling Springvale</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
     <t>old</t>
@@ -464,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,18 +486,18 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -508,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -519,10 +516,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -530,10 +527,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -541,10 +538,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -552,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -563,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -574,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -585,51 +582,51 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -637,32 +634,32 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -670,54 +667,54 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="B20">
-        <v>17</v>
-      </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -725,21 +722,21 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -747,106 +744,106 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>13</v>
@@ -857,32 +854,32 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -890,35 +887,90 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,54 +25,54 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>126 Racecourse Road Public Housing Tower Flemington</t>
+    <t>139 Highett St Apartment Complex Richmond</t>
   </si>
   <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>3600 Belvedere Age Care Noble Park Outbreak</t>
-  </si>
-  <si>
     <t>3612 BlueCross Glengowrie Outbreak</t>
   </si>
   <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner Outbreak</t>
+  </si>
+  <si>
+    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
+  </si>
+  <si>
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
+    <t>Bread Solutions Braeside Outbreak</t>
+  </si>
+  <si>
     <t>CS Square Caroline Springs Outbreak</t>
   </si>
   <si>
-    <t>Child's Play Early Learning Centre Tarneit</t>
+    <t>Cedar Meats Australia Brooklyn Outbreak</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
   </si>
   <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
-    <t>FedEx Station Melbourne Airport</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
+    <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
     <t>Inghams Enterprise Somerville Outbreak</t>
   </si>
   <si>
-    <t>Kool Kidz Childcare Narre Warren</t>
-  </si>
-  <si>
-    <t>Lantmannen Unibake Australia Mordialloc</t>
-  </si>
-  <si>
     <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
   </si>
   <si>
-    <t>Nido Early School Ascot Vale</t>
-  </si>
-  <si>
-    <t>Nido Early School Glenroy</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
@@ -91,19 +91,16 @@
     <t>Target Distribution Centre Truganina Outbreak</t>
   </si>
   <si>
-    <t>The Toolshed Bar Private Event Noojee</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,18 +483,18 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -505,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -513,13 +510,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -527,21 +524,21 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -549,21 +546,21 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -571,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -579,13 +576,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -593,10 +590,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -607,37 +604,37 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -645,13 +642,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -659,10 +656,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -670,10 +667,10 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -681,10 +678,10 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -692,21 +689,21 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -714,18 +711,18 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -736,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -747,10 +744,10 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -758,10 +755,10 @@
         <v>17</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -769,21 +766,21 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -791,18 +788,18 @@
         <v>19</v>
       </c>
       <c r="B30">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -813,18 +810,18 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -838,18 +835,18 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -857,7 +854,7 @@
         <v>22</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -868,10 +865,10 @@
         <v>23</v>
       </c>
       <c r="B37">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +879,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -890,10 +887,10 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -901,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -912,10 +909,10 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -923,10 +920,10 @@
         <v>25</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -934,10 +931,10 @@
         <v>26</v>
       </c>
       <c r="B43">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -945,32 +942,10 @@
         <v>26</v>
       </c>
       <c r="B44">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>Cluster name</t>
   </si>
@@ -31,76 +31,157 @@
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
+    <t>3563 Embracia Aged Care Reservoir</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Age Care Noble Park Outbreak</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie</t>
+  </si>
+  <si>
     <t>3612 BlueCross Glengowrie Outbreak</t>
   </si>
   <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
+  </si>
+  <si>
     <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
   </si>
   <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North</t>
+  </si>
+  <si>
     <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
   </si>
   <si>
+    <t>4518 Regis Aged Care Fawkner</t>
+  </si>
+  <si>
     <t>4518 Regis Aged Care Fawkner Outbreak</t>
   </si>
   <si>
+    <t>AW Window Transport Group Depot North Geelong</t>
+  </si>
+  <si>
     <t>AW Window Transport Group Depot North Geelong Outbreak</t>
   </si>
   <si>
-    <t>Australian Lamb Colac East</t>
+    <t>Allied Pinnacle Factory Altona North</t>
+  </si>
+  <si>
+    <t>Bread Solutions Braeside</t>
   </si>
   <si>
     <t>Bread Solutions Braeside Outbreak</t>
   </si>
   <si>
+    <t>CS Square Caroline Springs</t>
+  </si>
+  <si>
     <t>CS Square Caroline Springs Outbreak</t>
   </si>
   <si>
+    <t>Cedar Meats Australia Brooklyn</t>
+  </si>
+  <si>
     <t>Cedar Meats Australia Brooklyn Outbreak</t>
   </si>
   <si>
+    <t>Comfort Sleep Bedding Co Thomastown</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
+  </si>
+  <si>
     <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
   </si>
   <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
+    <t>Guardian Childcare Caulfield</t>
+  </si>
+  <si>
     <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
     <t>Inghams Enterprise Somerville Outbreak</t>
   </si>
   <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
-  </si>
-  <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
+    <t>Inghams Enterprises Somerville</t>
+  </si>
+  <si>
+    <t>Kool Kidz Childcare Narre Warren</t>
+  </si>
+  <si>
+    <t>Lantmannen Unibake Australia Mordialloc</t>
+  </si>
+  <si>
+    <t>Monash Health Kingston Centre South 5</t>
+  </si>
+  <si>
+    <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
+    <t>Oceania Meat Processors Laverton North</t>
+  </si>
+  <si>
+    <t>Oceania Meat Processors Laverton North Outbreak</t>
+  </si>
+  <si>
+    <t>Pick It Up Fitness Mulgrave Outbreak</t>
+  </si>
+  <si>
     <t>Robin Hood Inn Drouin West Outbreak</t>
   </si>
   <si>
-    <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Target Distribution Centre Truganina</t>
+  </si>
+  <si>
     <t>Target Distribution Centre Truganina Outbreak</t>
   </si>
   <si>
-    <t>Visy Recycling Springvale</t>
+    <t>The Robin Hood Inn Drouin West</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+  </si>
+  <si>
+    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
+  </si>
+  <si>
+    <t>The Toolshed Bar Private Event Noojee</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
+    <t>Western Health Footscray Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
 </sst>
 </file>
@@ -458,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,18 +564,18 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -502,450 +583,626 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57">
         <v>25</v>
       </c>
-      <c r="C44" t="s">
-        <v>27</v>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,21 +25,24 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond</t>
+    <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
   </si>
   <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
+    <t>3175 The Bays Aged Care Facility Hastings Outbreak</t>
+  </si>
+  <si>
     <t>3563 Embracia Aged Care Reservoir</t>
   </si>
   <si>
-    <t>3600 Belvedere Age Care Noble Park Outbreak</t>
-  </si>
-  <si>
     <t>3600 Belvedere Aged Care Noble Park</t>
   </si>
   <si>
+    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
+  </si>
+  <si>
     <t>3612 BlueCross Glengowrie</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>3980 Arcare Keysborough Aged Care Keysborough</t>
   </si>
   <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
+  </si>
+  <si>
     <t>4075 Ferndale Gardens Aged Care Services Bayswater North</t>
   </si>
   <si>
@@ -76,6 +82,12 @@
     <t>Allied Pinnacle Factory Altona North</t>
   </si>
   <si>
+    <t>Allied Pinnacle Factory Altona North Outbreak</t>
+  </si>
+  <si>
+    <t>Bespoke Childcare Dingley Village Outbreak</t>
+  </si>
+  <si>
     <t>Bread Solutions Braeside</t>
   </si>
   <si>
@@ -91,7 +103,10 @@
     <t>Cedar Meats Australia Brooklyn</t>
   </si>
   <si>
-    <t>Cedar Meats Australia Brooklyn Outbreak</t>
+    <t>Child's Play Early Learning Centre Tarneit</t>
+  </si>
+  <si>
+    <t>Child's Play Early Learning Centre Tarneit Outbreak</t>
   </si>
   <si>
     <t>Comfort Sleep Bedding Co Thomastown</t>
@@ -103,7 +118,7 @@
     <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
   </si>
   <si>
-    <t>Embracia Aged Care Reservoir Outbreak</t>
+    <t>Essential Caravans Somerton Outbreak</t>
   </si>
   <si>
     <t>Guardian Childcare Caulfield</t>
@@ -115,42 +130,75 @@
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
-    <t>Inghams Enterprise Somerville Outbreak</t>
+    <t>Hello Fresh Warehouse Ravenhall Outbreak</t>
   </si>
   <si>
     <t>Inghams Enterprises Somerville</t>
   </si>
   <si>
-    <t>Kool Kidz Childcare Narre Warren</t>
+    <t>Inghams Enterprises Somerville Outbreak</t>
   </si>
   <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
+    <t>Lantmannen Unibake Australia Mordialloc Outbreak</t>
+  </si>
+  <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
+  </si>
+  <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>MacKillop Family Services Residential Facility Glenroy Outbreak</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>Melbourne Youth Justice Centre Parkville Outbreak</t>
+  </si>
+  <si>
+    <t>Mildura Police Station Mildura Outbreak</t>
+  </si>
+  <si>
     <t>Monash Health Kingston Centre South 5</t>
   </si>
   <si>
-    <t>Nido Early School Ascot Vale</t>
+    <t>Monash Health Kingston Centre South 5 Outbreak</t>
+  </si>
+  <si>
+    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
+  </si>
+  <si>
+    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B Outbreak</t>
   </si>
   <si>
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
+    <t>Northern Health The Northern Hospital Epping Outbreak</t>
+  </si>
+  <si>
     <t>Oceania Meat Processors Laverton North</t>
   </si>
   <si>
     <t>Oceania Meat Processors Laverton North Outbreak</t>
   </si>
   <si>
-    <t>Pick It Up Fitness Mulgrave Outbreak</t>
-  </si>
-  <si>
-    <t>Robin Hood Inn Drouin West Outbreak</t>
+    <t>Public Housing 140 Brunswick Street Fitzroy Outbreak</t>
+  </si>
+  <si>
+    <t>Shawlands Caravan Park Dandenong South Outbreak</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
+  </si>
+  <si>
     <t>Target Distribution Centre Truganina</t>
   </si>
   <si>
@@ -160,7 +208,7 @@
     <t>The Robin Hood Inn Drouin West</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+    <t>The Robin Hood Inn Drouin West Outbreak</t>
   </si>
   <si>
     <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
@@ -169,19 +217,43 @@
     <t>The Toolshed Bar Private Event Noojee</t>
   </si>
   <si>
+    <t>The Toolshed Bar Private Event Noojee Outbreak</t>
+  </si>
+  <si>
+    <t>Turosi Breakwater</t>
+  </si>
+  <si>
+    <t>Turosi Breakwater Outbreak</t>
+  </si>
+  <si>
+    <t>Visy Recycling Springvale</t>
+  </si>
+  <si>
+    <t>Visy Recycling Springvale Outbreak</t>
+  </si>
+  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
+    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
+    <t>Western Health Footscray Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
+    <t>Western Health Sunshine Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -539,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -575,634 +647,810 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B60">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
         <v>22</v>
       </c>
-      <c r="C60" t="s">
-        <v>55</v>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,229 +25,76 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>139 Highett St Apartment Complex Richmond Outbreak</t>
+  </si>
+  <si>
     <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
   </si>
   <si>
-    <t>3175 The Bays Aged Care Facility Hastings</t>
-  </si>
-  <si>
     <t>3175 The Bays Aged Care Facility Hastings Outbreak</t>
   </si>
   <si>
-    <t>3563 Embracia Aged Care Reservoir</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park</t>
-  </si>
-  <si>
     <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
   </si>
   <si>
-    <t>3612 BlueCross Glengowrie</t>
-  </si>
-  <si>
     <t>3612 BlueCross Glengowrie Outbreak</t>
   </si>
   <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
-  </si>
-  <si>
     <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
   </si>
   <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
-  </si>
-  <si>
     <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
   </si>
   <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North</t>
-  </si>
-  <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner</t>
-  </si>
-  <si>
     <t>4518 Regis Aged Care Fawkner Outbreak</t>
   </si>
   <si>
-    <t>AW Window Transport Group Depot North Geelong</t>
-  </si>
-  <si>
-    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
-  </si>
-  <si>
-    <t>Allied Pinnacle Factory Altona North</t>
-  </si>
-  <si>
     <t>Allied Pinnacle Factory Altona North Outbreak</t>
   </si>
   <si>
     <t>Bespoke Childcare Dingley Village Outbreak</t>
   </si>
   <si>
-    <t>Bread Solutions Braeside</t>
-  </si>
-  <si>
     <t>Bread Solutions Braeside Outbreak</t>
   </si>
   <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs Outbreak</t>
-  </si>
-  <si>
-    <t>Cedar Meats Australia Brooklyn</t>
-  </si>
-  <si>
-    <t>Child's Play Early Learning Centre Tarneit</t>
-  </si>
-  <si>
-    <t>Child's Play Early Learning Centre Tarneit Outbreak</t>
-  </si>
-  <si>
-    <t>Comfort Sleep Bedding Co Thomastown</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
-  </si>
-  <si>
-    <t>Essential Caravans Somerton Outbreak</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield Outbreak</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall Outbreak</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville Outbreak</t>
-  </si>
-  <si>
-    <t>Lantmannen Unibake Australia Mordialloc</t>
-  </si>
-  <si>
     <t>Lantmannen Unibake Australia Mordialloc Outbreak</t>
   </si>
   <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
-  </si>
-  <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>MacKillop Family Services Residential Facility Glenroy Outbreak</t>
-  </si>
-  <si>
     <t>Melbourne Assessment Prison West Melbourne Outbreak</t>
   </si>
   <si>
-    <t>Melbourne Youth Justice Centre Parkville Outbreak</t>
+    <t>Melbourne Custody Centre Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne Outbreak</t>
   </si>
   <si>
     <t>Mildura Police Station Mildura Outbreak</t>
   </si>
   <si>
-    <t>Monash Health Kingston Centre South 5</t>
-  </si>
-  <si>
-    <t>Monash Health Kingston Centre South 5 Outbreak</t>
-  </si>
-  <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B Outbreak</t>
   </si>
   <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
     <t>Northern Health The Northern Hospital Epping Outbreak</t>
   </si>
   <si>
-    <t>Oceania Meat Processors Laverton North</t>
-  </si>
-  <si>
-    <t>Oceania Meat Processors Laverton North Outbreak</t>
-  </si>
-  <si>
     <t>Public Housing 140 Brunswick Street Fitzroy Outbreak</t>
   </si>
   <si>
-    <t>Shawlands Caravan Park Dandenong South Outbreak</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
+    <t>Public housing 33 Alfred Street North Melbourne Outbreak</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
   </si>
   <si>
-    <t>Target Distribution Centre Truganina</t>
-  </si>
-  <si>
-    <t>Target Distribution Centre Truganina Outbreak</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West</t>
-  </si>
-  <si>
     <t>The Robin Hood Inn Drouin West Outbreak</t>
   </si>
   <si>
-    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
-  </si>
-  <si>
-    <t>The Toolshed Bar Private Event Noojee</t>
-  </si>
-  <si>
-    <t>The Toolshed Bar Private Event Noojee Outbreak</t>
-  </si>
-  <si>
-    <t>Turosi Breakwater</t>
-  </si>
-  <si>
     <t>Turosi Breakwater Outbreak</t>
   </si>
   <si>
-    <t>Visy Recycling Springvale</t>
-  </si>
-  <si>
-    <t>Visy Recycling Springvale Outbreak</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
     <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department Outbreak</t>
   </si>
   <si>
     <t>new</t>
@@ -611,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,10 +480,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -644,813 +491,439 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>41</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51">
-        <v>43</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>36</v>
-      </c>
-      <c r="C58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>37</v>
-      </c>
-      <c r="C59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <v>17</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>46</v>
-      </c>
-      <c r="C62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>48</v>
-      </c>
-      <c r="C63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65">
-        <v>16</v>
-      </c>
-      <c r="C65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69">
-        <v>21</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71">
-        <v>23</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72">
-        <v>26</v>
-      </c>
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75">
-        <v>22</v>
-      </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76">
-        <v>24</v>
-      </c>
-      <c r="C76" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_diff.xlsx
+++ b/vic-key-outbreaks_0_diff.xlsx
@@ -14,75 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
   </si>
   <si>
-    <t>Cluster Name</t>
+    <t>Cluster</t>
   </si>
   <si>
     <t>Exist</t>
   </si>
   <si>
-    <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie Outbreak</t>
-  </si>
-  <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
-    <t>The Toolshed Bar Private Event Noojee Outbreak</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
+    <t>3612 BlueCross Glengowrie</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
   </si>
   <si>
     <t>Guardian Childcare Caulfield</t>
   </si>
   <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
-  </si>
-  <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
-  </si>
-  <si>
     <t>Inghams Enterprises Somerville</t>
   </si>
   <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
+    <t>Oceania Meat Processors Laverton North</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>3600 Belvedere Aged Care Noble Park</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie</t>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>4075 Homestyle Aged Care Ferndale Gardens Aged Care Services Bayswater North</t>
+  </si>
+  <si>
+    <t>3824 Estia Health South Morang</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
     <t>old</t>
@@ -446,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -482,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -493,10 +481,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -504,10 +492,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -515,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -526,10 +514,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -537,10 +525,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -548,10 +536,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,120 +547,153 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
       <c r="B11">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
